--- a/allBLUPsDF_BOTH_PhotoScore23.xlsx
+++ b/allBLUPsDF_BOTH_PhotoScore23.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="0" windowWidth="23080" windowHeight="13240" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="0" windowWidth="23080" windowHeight="13240" tabRatio="632"/>
   </bookViews>
   <sheets>
-    <sheet name="FG_Ranking" sheetId="5" r:id="rId1"/>
-    <sheet name="MG_Ranking" sheetId="4" r:id="rId2"/>
-    <sheet name="allBLUPsDF_BOTH_PhotoScore23.cs" sheetId="1" r:id="rId3"/>
-    <sheet name="categoraySP_vlookup" sheetId="2" r:id="rId4"/>
-    <sheet name="FG_MG" sheetId="3" r:id="rId5"/>
+    <sheet name="Fndrs_Ranking" sheetId="6" r:id="rId1"/>
+    <sheet name="FG_Ranking" sheetId="5" r:id="rId2"/>
+    <sheet name="MG_Ranking" sheetId="4" r:id="rId3"/>
+    <sheet name="allBLUPsDF_BOTH_PhotoScore23.cs" sheetId="1" r:id="rId4"/>
+    <sheet name="categoraySP_vlookup" sheetId="2" r:id="rId5"/>
+    <sheet name="FG_MG" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">allBLUPsDF_BOTH_PhotoScore23.cs!$A$1:$M$626</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FG_MG!$A$1:$M$228</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">allBLUPsDF_BOTH_PhotoScore23.cs!$A$1:$M$626</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">FG_MG!$A$1:$M$228</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fndrs_Ranking!$A$1:$M$149</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8238" uniqueCount="2817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8547" uniqueCount="2818">
   <si>
     <t>pedigree</t>
   </si>
@@ -8478,6 +8480,9 @@
   </si>
   <si>
     <t>Ranking</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
 </sst>
 </file>
@@ -8516,7 +8521,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8535,6 +8540,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -8545,7 +8556,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -8557,8 +8568,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -8566,18 +8581,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8907,9 +8928,6145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M149"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.16698494490753599</v>
+      </c>
+      <c r="E2">
+        <v>0.20740897968774</v>
+      </c>
+      <c r="F2">
+        <v>0.58897391369327801</v>
+      </c>
+      <c r="G2">
+        <v>-0.126560910127333</v>
+      </c>
+      <c r="H2">
+        <v>55.435062612316798</v>
+      </c>
+      <c r="I2">
+        <v>8.9501295667084799E-2</v>
+      </c>
+      <c r="J2">
+        <v>-3.3383774074038003E-2</v>
+      </c>
+      <c r="K2">
+        <v>-6.4814227171691399E-2</v>
+      </c>
+      <c r="L2">
+        <v>-0.11059350970863401</v>
+      </c>
+      <c r="M2">
+        <v>-0.44690957880850701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.15511848611272799</v>
+      </c>
+      <c r="E3">
+        <v>0.29711329246828999</v>
+      </c>
+      <c r="F3">
+        <v>0.49235124938960501</v>
+      </c>
+      <c r="G3">
+        <v>-1.3123679757166299E-2</v>
+      </c>
+      <c r="H3">
+        <v>37.066084590851602</v>
+      </c>
+      <c r="I3">
+        <v>0.16928726230875801</v>
+      </c>
+      <c r="J3">
+        <v>0.16550253655866201</v>
+      </c>
+      <c r="K3">
+        <v>-0.26646164708818398</v>
+      </c>
+      <c r="L3">
+        <v>-0.196972037172083</v>
+      </c>
+      <c r="M3">
+        <v>-0.38367235990459903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.152724603172711</v>
+      </c>
+      <c r="E4">
+        <v>0.39043192280334499</v>
+      </c>
+      <c r="F4">
+        <v>0.410324218760516</v>
+      </c>
+      <c r="G4">
+        <v>8.49827164579227E-2</v>
+      </c>
+      <c r="H4">
+        <v>26.972726722863101</v>
+      </c>
+      <c r="I4">
+        <v>0.10761629389188</v>
+      </c>
+      <c r="J4">
+        <v>0.17322685832363399</v>
+      </c>
+      <c r="K4">
+        <v>-0.25501051160622401</v>
+      </c>
+      <c r="L4">
+        <v>0.13278296372411</v>
+      </c>
+      <c r="M4">
+        <v>-0.148440917161619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.13862042178916301</v>
+      </c>
+      <c r="E5">
+        <v>0.67175033124323802</v>
+      </c>
+      <c r="F5">
+        <v>0.30623105518551302</v>
+      </c>
+      <c r="G5">
+        <v>0.39450948766491101</v>
+      </c>
+      <c r="H5">
+        <v>-16.850163245363799</v>
+      </c>
+      <c r="I5">
+        <v>-0.26405333625654698</v>
+      </c>
+      <c r="J5">
+        <v>-0.20375293034731401</v>
+      </c>
+      <c r="K5">
+        <v>3.4137101035902301E-3</v>
+      </c>
+      <c r="L5">
+        <v>-0.206149683816373</v>
+      </c>
+      <c r="M5">
+        <v>-4.1561115972013903E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.13665944839173999</v>
+      </c>
+      <c r="E6">
+        <v>0.19769385092054001</v>
+      </c>
+      <c r="F6">
+        <v>0.34191448690493997</v>
+      </c>
+      <c r="G6">
+        <v>-7.5625045862940402E-2</v>
+      </c>
+      <c r="H6">
+        <v>8.3420947405631196</v>
+      </c>
+      <c r="I6">
+        <v>-0.13030771511870901</v>
+      </c>
+      <c r="J6">
+        <v>-0.22134203440160999</v>
+      </c>
+      <c r="K6">
+        <v>0.123206153793738</v>
+      </c>
+      <c r="L6">
+        <v>3.8010415640121101E-2</v>
+      </c>
+      <c r="M6">
+        <v>-3.1350909888890499E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.132368601889121</v>
+      </c>
+      <c r="E7">
+        <v>0.60279427252099005</v>
+      </c>
+      <c r="F7">
+        <v>0.259379253738726</v>
+      </c>
+      <c r="G7">
+        <v>0.33805706874274799</v>
+      </c>
+      <c r="H7">
+        <v>-5.5940040257540602</v>
+      </c>
+      <c r="I7">
+        <v>0.19478867148362899</v>
+      </c>
+      <c r="J7">
+        <v>-3.6435288547785501E-2</v>
+      </c>
+      <c r="K7">
+        <v>-0.38405582144112299</v>
+      </c>
+      <c r="L7">
+        <v>6.1970828439691997E-2</v>
+      </c>
+      <c r="M7">
+        <v>-0.170853066294122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.124929134792057</v>
+      </c>
+      <c r="E8">
+        <v>0.35121292884446198</v>
+      </c>
+      <c r="F8">
+        <v>0.320605038104606</v>
+      </c>
+      <c r="G8">
+        <v>0.10135465926034801</v>
+      </c>
+      <c r="H8">
+        <v>-3.4961495137532101</v>
+      </c>
+      <c r="I8">
+        <v>0.120140107498534</v>
+      </c>
+      <c r="J8">
+        <v>0.26629803970835098</v>
+      </c>
+      <c r="K8">
+        <v>-0.49003516408373199</v>
+      </c>
+      <c r="L8">
+        <v>-0.42189903316045702</v>
+      </c>
+      <c r="M8">
+        <v>-0.60515022914170902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="7">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.116225951062841</v>
+      </c>
+      <c r="E9">
+        <v>0.14275250583464899</v>
+      </c>
+      <c r="F9">
+        <v>0.38531196733238898</v>
+      </c>
+      <c r="G9">
+        <v>-8.9699396291033295E-2</v>
+      </c>
+      <c r="H9">
+        <v>11.8229028561109</v>
+      </c>
+      <c r="I9">
+        <v>2.9250256468363399E-2</v>
+      </c>
+      <c r="J9">
+        <v>-7.0861471677304305E-2</v>
+      </c>
+      <c r="K9">
+        <v>-0.33806505895538802</v>
+      </c>
+      <c r="L9">
+        <v>6.9279660277653393E-2</v>
+      </c>
+      <c r="M9">
+        <v>-0.31497524384172398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="7">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.107176477281998</v>
+      </c>
+      <c r="E10">
+        <v>0.26512786683091299</v>
+      </c>
+      <c r="F10">
+        <v>0.30477352085596698</v>
+      </c>
+      <c r="G10">
+        <v>5.0774912266917098E-2</v>
+      </c>
+      <c r="H10">
+        <v>11.5002555132958</v>
+      </c>
+      <c r="I10">
+        <v>-8.1807327006582203E-3</v>
+      </c>
+      <c r="J10">
+        <v>4.0195809023841501E-3</v>
+      </c>
+      <c r="K10">
+        <v>-8.7316628844816297E-3</v>
+      </c>
+      <c r="L10">
+        <v>-0.115392929238362</v>
+      </c>
+      <c r="M10">
+        <v>-0.26585013967911902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="7">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.104570509904091</v>
+      </c>
+      <c r="E11">
+        <v>0.29651064435545599</v>
+      </c>
+      <c r="F11">
+        <v>0.28983540403679497</v>
+      </c>
+      <c r="G11">
+        <v>8.7369624547273303E-2</v>
+      </c>
+      <c r="H11">
+        <v>7.7579387021620203</v>
+      </c>
+      <c r="I11">
+        <v>-1.6114092593032099E-2</v>
+      </c>
+      <c r="J11">
+        <v>3.12928709411485E-2</v>
+      </c>
+      <c r="K11">
+        <v>9.82472040089159E-2</v>
+      </c>
+      <c r="L11">
+        <v>-6.43293947876937E-2</v>
+      </c>
+      <c r="M11">
+        <v>-0.16946816191018599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="7">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.103476185675674</v>
+      </c>
+      <c r="E12">
+        <v>0.23559879154006999</v>
+      </c>
+      <c r="F12">
+        <v>0.30387510159198799</v>
+      </c>
+      <c r="G12">
+        <v>2.8646420188721902E-2</v>
+      </c>
+      <c r="H12">
+        <v>15.505796350909799</v>
+      </c>
+      <c r="I12">
+        <v>-2.0901467965803101E-2</v>
+      </c>
+      <c r="J12">
+        <v>1.6437594484333899E-2</v>
+      </c>
+      <c r="K12">
+        <v>-2.0780558759297501E-2</v>
+      </c>
+      <c r="L12">
+        <v>-5.2934119794623903E-2</v>
+      </c>
+      <c r="M12">
+        <v>-0.200140049431833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="7">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.10317658040225</v>
+      </c>
+      <c r="E13">
+        <v>0.26023759549706399</v>
+      </c>
+      <c r="F13">
+        <v>0.29953170151151998</v>
+      </c>
+      <c r="G13">
+        <v>5.3884434692563397E-2</v>
+      </c>
+      <c r="H13">
+        <v>16.308192671219899</v>
+      </c>
+      <c r="I13">
+        <v>5.3255784103790902E-3</v>
+      </c>
+      <c r="J13">
+        <v>2.0865755291859699E-2</v>
+      </c>
+      <c r="K13">
+        <v>-7.0111727922052197E-2</v>
+      </c>
+      <c r="L13">
+        <v>-4.5633191484939502E-2</v>
+      </c>
+      <c r="M13">
+        <v>-0.27470830219147002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="7">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.103125706309298</v>
+      </c>
+      <c r="E14">
+        <v>0.26418405225729102</v>
+      </c>
+      <c r="F14">
+        <v>0.30209906826410199</v>
+      </c>
+      <c r="G14">
+        <v>5.7932639638694203E-2</v>
+      </c>
+      <c r="H14">
+        <v>15.5835210596513</v>
+      </c>
+      <c r="I14">
+        <v>1.1959764680824001E-2</v>
+      </c>
+      <c r="J14">
+        <v>-5.8813565028410196E-3</v>
+      </c>
+      <c r="K14">
+        <v>-7.5471234206984802E-2</v>
+      </c>
+      <c r="L14">
+        <v>-6.7518183655475697E-2</v>
+      </c>
+      <c r="M14">
+        <v>-0.284424568876885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="7">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.102774848076351</v>
+      </c>
+      <c r="E15">
+        <v>0.240332656996188</v>
+      </c>
+      <c r="F15">
+        <v>0.29868029076804897</v>
+      </c>
+      <c r="G15">
+        <v>3.47829608434869E-2</v>
+      </c>
+      <c r="H15">
+        <v>10.352541695850199</v>
+      </c>
+      <c r="I15">
+        <v>-2.0941955912157102E-2</v>
+      </c>
+      <c r="J15">
+        <v>2.72593781846205E-2</v>
+      </c>
+      <c r="K15">
+        <v>4.0010126841088497E-2</v>
+      </c>
+      <c r="L15">
+        <v>-6.2795190577084603E-2</v>
+      </c>
+      <c r="M15">
+        <v>-0.22573779123519599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="7">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.102204834889837</v>
+      </c>
+      <c r="E16">
+        <v>0.24882392914843199</v>
+      </c>
+      <c r="F16">
+        <v>0.31448058454196398</v>
+      </c>
+      <c r="G16">
+        <v>4.4414259368757897E-2</v>
+      </c>
+      <c r="H16">
+        <v>17.294150951779098</v>
+      </c>
+      <c r="I16">
+        <v>5.2575696120870697E-4</v>
+      </c>
+      <c r="J16">
+        <v>3.8755975086525798E-4</v>
+      </c>
+      <c r="K16">
+        <v>-0.129211700871909</v>
+      </c>
+      <c r="L16">
+        <v>-8.1497977187033804E-2</v>
+      </c>
+      <c r="M16">
+        <v>-0.266663328826242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="7">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.101255336636354</v>
+      </c>
+      <c r="E17">
+        <v>0.25656949356806402</v>
+      </c>
+      <c r="F17">
+        <v>0.29275317913087101</v>
+      </c>
+      <c r="G17">
+        <v>5.4058820295355602E-2</v>
+      </c>
+      <c r="H17">
+        <v>9.6322786830123093</v>
+      </c>
+      <c r="I17">
+        <v>2.8640710412024899E-3</v>
+      </c>
+      <c r="J17">
+        <v>2.9722579320210701E-2</v>
+      </c>
+      <c r="K17">
+        <v>-3.4496674221841599E-2</v>
+      </c>
+      <c r="L17">
+        <v>-5.0559302688987201E-2</v>
+      </c>
+      <c r="M17">
+        <v>-0.26377369223025898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="7">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.100778494213997</v>
+      </c>
+      <c r="E18">
+        <v>0.28222129642972199</v>
+      </c>
+      <c r="F18">
+        <v>0.28933148474104498</v>
+      </c>
+      <c r="G18">
+        <v>8.0664308001728496E-2</v>
+      </c>
+      <c r="H18">
+        <v>10.9443356874768</v>
+      </c>
+      <c r="I18">
+        <v>-2.87894400861587E-4</v>
+      </c>
+      <c r="J18">
+        <v>6.6429813848654998E-3</v>
+      </c>
+      <c r="K18">
+        <v>-3.4762862124021299E-2</v>
+      </c>
+      <c r="L18">
+        <v>-3.7008356432215901E-2</v>
+      </c>
+      <c r="M18">
+        <v>-0.23685691012228899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="7">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.100639676173315</v>
+      </c>
+      <c r="E19">
+        <v>0.256926937794412</v>
+      </c>
+      <c r="F19">
+        <v>0.29242016355602302</v>
+      </c>
+      <c r="G19">
+        <v>5.56475854477822E-2</v>
+      </c>
+      <c r="H19">
+        <v>12.2725565732286</v>
+      </c>
+      <c r="I19">
+        <v>-2.3669070598264001E-2</v>
+      </c>
+      <c r="J19">
+        <v>2.6589588949791201E-2</v>
+      </c>
+      <c r="K19">
+        <v>-2.0415084992405999E-3</v>
+      </c>
+      <c r="L19">
+        <v>-6.4153074977244096E-2</v>
+      </c>
+      <c r="M19">
+        <v>-0.25548757143758299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="7">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.100570409313394</v>
+      </c>
+      <c r="E20">
+        <v>0.23477672478494499</v>
+      </c>
+      <c r="F20">
+        <v>0.29570008235308398</v>
+      </c>
+      <c r="G20">
+        <v>3.3635906158156197E-2</v>
+      </c>
+      <c r="H20">
+        <v>9.7657793220918894</v>
+      </c>
+      <c r="I20">
+        <v>-2.7667094914854899E-3</v>
+      </c>
+      <c r="J20">
+        <v>6.4777048703724797E-3</v>
+      </c>
+      <c r="K20">
+        <v>8.0884759400305E-4</v>
+      </c>
+      <c r="L20">
+        <v>-5.9554381757138897E-2</v>
+      </c>
+      <c r="M20">
+        <v>-0.220648497361529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" s="7">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D21" s="8">
+        <v>9.9454322678398294E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.261168526872194</v>
+      </c>
+      <c r="F21">
+        <v>0.28741811537885598</v>
+      </c>
+      <c r="G21">
+        <v>6.2259881515397998E-2</v>
+      </c>
+      <c r="H21">
+        <v>10.032583569197101</v>
+      </c>
+      <c r="I21">
+        <v>1.11044367237938E-2</v>
+      </c>
+      <c r="J21">
+        <v>4.1182730397426502E-2</v>
+      </c>
+      <c r="K21">
+        <v>-8.4660544341275401E-2</v>
+      </c>
+      <c r="L21">
+        <v>-6.59510892158926E-2</v>
+      </c>
+      <c r="M21">
+        <v>-0.26724853532394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="7">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D22" s="8">
+        <v>9.9407413325117905E-2</v>
+      </c>
+      <c r="E22">
+        <v>0.242267843672345</v>
+      </c>
+      <c r="F22">
+        <v>0.29190800242266002</v>
+      </c>
+      <c r="G22">
+        <v>4.3453017022109103E-2</v>
+      </c>
+      <c r="H22">
+        <v>15.726049701238599</v>
+      </c>
+      <c r="I22">
+        <v>1.32632264106842E-2</v>
+      </c>
+      <c r="J22">
+        <v>2.7709616252871602E-2</v>
+      </c>
+      <c r="K22">
+        <v>-9.5947487508356702E-2</v>
+      </c>
+      <c r="L22">
+        <v>-5.97435956944216E-2</v>
+      </c>
+      <c r="M22">
+        <v>-0.26446455785587503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="7">
+        <v>22</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D23" s="8">
+        <v>9.8487740634459503E-2</v>
+      </c>
+      <c r="E23">
+        <v>5.4590868500979398E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.38285637054411298</v>
+      </c>
+      <c r="G23">
+        <v>-0.14238461276794001</v>
+      </c>
+      <c r="H23">
+        <v>1.5997672356702901</v>
+      </c>
+      <c r="I23">
+        <v>8.7531112301711095E-2</v>
+      </c>
+      <c r="J23">
+        <v>0.30559130900527298</v>
+      </c>
+      <c r="K23">
+        <v>-0.70297335374863601</v>
+      </c>
+      <c r="L23">
+        <v>7.1772583007329194E-2</v>
+      </c>
+      <c r="M23">
+        <v>-0.626922831205877</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" s="7">
+        <v>23</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D24" s="8">
+        <v>9.8483802001199605E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.28158740344955102</v>
+      </c>
+      <c r="F24">
+        <v>0.26778967211306098</v>
+      </c>
+      <c r="G24">
+        <v>8.4619799447151395E-2</v>
+      </c>
+      <c r="H24">
+        <v>7.6828209183327001</v>
+      </c>
+      <c r="I24">
+        <v>1.10247954642135E-2</v>
+      </c>
+      <c r="J24">
+        <v>3.6847116820301402E-2</v>
+      </c>
+      <c r="K24">
+        <v>-3.4228663790142499E-2</v>
+      </c>
+      <c r="L24">
+        <v>-8.0000927452694506E-2</v>
+      </c>
+      <c r="M24">
+        <v>-0.30636276975888699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B25" s="7">
+        <v>24</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D25" s="8">
+        <v>9.6619080523659695E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.24681233342148701</v>
+      </c>
+      <c r="F25">
+        <v>0.27748991710603499</v>
+      </c>
+      <c r="G25">
+        <v>5.3574172374167603E-2</v>
+      </c>
+      <c r="H25">
+        <v>16.550516847333299</v>
+      </c>
+      <c r="I25">
+        <v>9.7247111626704102E-2</v>
+      </c>
+      <c r="J25">
+        <v>-5.9841647848384E-2</v>
+      </c>
+      <c r="K25">
+        <v>-0.44726694275122397</v>
+      </c>
+      <c r="L25">
+        <v>-0.46616987716594199</v>
+      </c>
+      <c r="M25">
+        <v>-0.52008530902297301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B26" s="7">
+        <v>25</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D26" s="8">
+        <v>9.6437124989685194E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.27334970036300799</v>
+      </c>
+      <c r="F26">
+        <v>0.27198472129525197</v>
+      </c>
+      <c r="G26">
+        <v>8.0475450383637306E-2</v>
+      </c>
+      <c r="H26">
+        <v>8.02797112059306</v>
+      </c>
+      <c r="I26">
+        <v>-1.4755874140573499E-2</v>
+      </c>
+      <c r="J26">
+        <v>2.0788336290616102E-2</v>
+      </c>
+      <c r="K26">
+        <v>-1.33314663822044E-2</v>
+      </c>
+      <c r="L26">
+        <v>-6.4193950174407002E-2</v>
+      </c>
+      <c r="M26">
+        <v>-0.20769182563615299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="7">
+        <v>26</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D27" s="8">
+        <v>9.5161302098352094E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.227556213451444</v>
+      </c>
+      <c r="F27">
+        <v>0.26616973296649499</v>
+      </c>
+      <c r="G27">
+        <v>3.7233609254739598E-2</v>
+      </c>
+      <c r="H27">
+        <v>13.9859324193592</v>
+      </c>
+      <c r="I27">
+        <v>-5.2926138328909095E-4</v>
+      </c>
+      <c r="J27">
+        <v>2.0475417998949901E-2</v>
+      </c>
+      <c r="K27">
+        <v>5.1304796912928698E-2</v>
+      </c>
+      <c r="L27">
+        <v>-7.7971927098349395E-2</v>
+      </c>
+      <c r="M27">
+        <v>-0.22775726705250701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="7">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D28" s="8">
+        <v>9.4330729508584094E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.223176003949975</v>
+      </c>
+      <c r="F28">
+        <v>0.27859756824457599</v>
+      </c>
+      <c r="G28">
+        <v>3.4514544932806798E-2</v>
+      </c>
+      <c r="H28">
+        <v>10.178859095829599</v>
+      </c>
+      <c r="I28">
+        <v>-1.5283970254191001E-2</v>
+      </c>
+      <c r="J28">
+        <v>3.09609065717435E-2</v>
+      </c>
+      <c r="K28">
+        <v>-5.7566924048613503E-4</v>
+      </c>
+      <c r="L28">
+        <v>-9.3355119933723404E-2</v>
+      </c>
+      <c r="M28">
+        <v>-0.22801930275194299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" s="7">
+        <v>28</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D29" s="8">
+        <v>9.2456546891841601E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.23446312662374699</v>
+      </c>
+      <c r="F29">
+        <v>0.26488465912514397</v>
+      </c>
+      <c r="G29">
+        <v>4.95500328400637E-2</v>
+      </c>
+      <c r="H29">
+        <v>11.1739550875111</v>
+      </c>
+      <c r="I29">
+        <v>3.4447200297622201E-3</v>
+      </c>
+      <c r="J29">
+        <v>3.3764444869182897E-2</v>
+      </c>
+      <c r="K29">
+        <v>-3.08738819044274E-2</v>
+      </c>
+      <c r="L29">
+        <v>-4.9131078462512197E-2</v>
+      </c>
+      <c r="M29">
+        <v>-0.25516471805929603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="7">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D30" s="8">
+        <v>9.2253283944457198E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.209407095541495</v>
+      </c>
+      <c r="F30">
+        <v>0.26077197060073498</v>
+      </c>
+      <c r="G30">
+        <v>2.4900527652580499E-2</v>
+      </c>
+      <c r="H30">
+        <v>7.5810434307415804</v>
+      </c>
+      <c r="I30">
+        <v>-1.1870093337411401E-2</v>
+      </c>
+      <c r="J30">
+        <v>3.0997487994860701E-2</v>
+      </c>
+      <c r="K30">
+        <v>1.7812427811141399E-2</v>
+      </c>
+      <c r="L30">
+        <v>-6.5730223388014694E-2</v>
+      </c>
+      <c r="M30">
+        <v>-0.20776128314151099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="7">
+        <v>30</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D31" s="8">
+        <v>9.1744857815222999E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.23490639902011801</v>
+      </c>
+      <c r="F31">
+        <v>0.220161628090453</v>
+      </c>
+      <c r="G31">
+        <v>5.1416683389672202E-2</v>
+      </c>
+      <c r="H31">
+        <v>1.26884447190612</v>
+      </c>
+      <c r="I31">
+        <v>0.216424151680606</v>
+      </c>
+      <c r="J31">
+        <v>-0.18266334651276001</v>
+      </c>
+      <c r="K31">
+        <v>-0.187253410901979</v>
+      </c>
+      <c r="L31">
+        <v>-0.199940301296582</v>
+      </c>
+      <c r="M31">
+        <v>-5.9786847741013199E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="7">
+        <v>31</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D32" s="8">
+        <v>9.1137783151985605E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.11180825650132099</v>
+      </c>
+      <c r="F32">
+        <v>0.35333413711723699</v>
+      </c>
+      <c r="G32">
+        <v>-7.04673098026498E-2</v>
+      </c>
+      <c r="H32">
+        <v>15.2292298805906</v>
+      </c>
+      <c r="I32">
+        <v>7.6501425359818395E-2</v>
+      </c>
+      <c r="J32">
+        <v>-7.9283934574786802E-2</v>
+      </c>
+      <c r="K32">
+        <v>-0.139876924672064</v>
+      </c>
+      <c r="L32">
+        <v>0.31152017214116201</v>
+      </c>
+      <c r="M32">
+        <v>2.0308236268195501E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="7">
+        <v>32</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D33" s="8">
+        <v>9.0362523771181605E-2</v>
+      </c>
+      <c r="E33">
+        <v>0.23434712508076599</v>
+      </c>
+      <c r="F33">
+        <v>0.26630668865537799</v>
+      </c>
+      <c r="G33">
+        <v>5.3622077538402299E-2</v>
+      </c>
+      <c r="H33">
+        <v>14.6437547775267</v>
+      </c>
+      <c r="I33">
+        <v>6.6254772115564298E-3</v>
+      </c>
+      <c r="J33">
+        <v>4.6563390207747898E-2</v>
+      </c>
+      <c r="K33">
+        <v>-6.2901693575577497E-2</v>
+      </c>
+      <c r="L33">
+        <v>-5.91047643402847E-2</v>
+      </c>
+      <c r="M33">
+        <v>-0.24704716113261599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="7">
+        <v>33</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D34" s="8">
+        <v>8.9153874303695202E-2</v>
+      </c>
+      <c r="E34">
+        <v>0.228333601640371</v>
+      </c>
+      <c r="F34">
+        <v>0.26018526018965099</v>
+      </c>
+      <c r="G34">
+        <v>5.0025853032980197E-2</v>
+      </c>
+      <c r="H34">
+        <v>12.047556278876799</v>
+      </c>
+      <c r="I34">
+        <v>-1.80487495327777E-2</v>
+      </c>
+      <c r="J34">
+        <v>-2.6159387241476199E-2</v>
+      </c>
+      <c r="K34">
+        <v>2.0850900337066401E-2</v>
+      </c>
+      <c r="L34">
+        <v>-5.26418036493531E-2</v>
+      </c>
+      <c r="M34">
+        <v>-0.15678916083011099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" s="7">
+        <v>34</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D35" s="8">
+        <v>8.88823006842272E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.26124837866145001</v>
+      </c>
+      <c r="F35">
+        <v>0.24220805764557199</v>
+      </c>
+      <c r="G35">
+        <v>8.3483777292995498E-2</v>
+      </c>
+      <c r="H35">
+        <v>4.6961551887904598</v>
+      </c>
+      <c r="I35">
+        <v>-3.02654365893762E-2</v>
+      </c>
+      <c r="J35">
+        <v>6.1415655157572899E-2</v>
+      </c>
+      <c r="K35">
+        <v>9.4193580442378494E-2</v>
+      </c>
+      <c r="L35">
+        <v>-4.9178046731455399E-2</v>
+      </c>
+      <c r="M35">
+        <v>-0.153635515434836</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="7">
+        <v>35</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D36" s="8">
+        <v>8.7678383123109396E-2</v>
+      </c>
+      <c r="E36">
+        <v>0.224844515959013</v>
+      </c>
+      <c r="F36">
+        <v>0.24814466748401101</v>
+      </c>
+      <c r="G36">
+        <v>4.9487749712793801E-2</v>
+      </c>
+      <c r="H36">
+        <v>5.61309289126749</v>
+      </c>
+      <c r="I36">
+        <v>-5.5422977534896004E-3</v>
+      </c>
+      <c r="J36">
+        <v>5.5918302682383902E-2</v>
+      </c>
+      <c r="K36">
+        <v>-2.15244603194183E-2</v>
+      </c>
+      <c r="L36">
+        <v>-7.5387694527786001E-2</v>
+      </c>
+      <c r="M36">
+        <v>-0.21231060722980699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" s="7">
+        <v>36</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D37" s="8">
+        <v>8.7263749065030496E-2</v>
+      </c>
+      <c r="E37">
+        <v>0.22329368391519</v>
+      </c>
+      <c r="F37">
+        <v>0.248348271476699</v>
+      </c>
+      <c r="G37">
+        <v>4.8766185785128903E-2</v>
+      </c>
+      <c r="H37">
+        <v>10.3211892189456</v>
+      </c>
+      <c r="I37">
+        <v>-1.25072683367168E-2</v>
+      </c>
+      <c r="J37">
+        <v>1.6793535194545298E-2</v>
+      </c>
+      <c r="K37">
+        <v>5.2013924107758201E-2</v>
+      </c>
+      <c r="L37">
+        <v>-2.8357566844114501E-2</v>
+      </c>
+      <c r="M37">
+        <v>-0.17231776748303701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="7">
+        <v>37</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D38" s="8">
+        <v>8.3906181539417105E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.18455401230927701</v>
+      </c>
+      <c r="F38">
+        <v>0.25054992618914501</v>
+      </c>
+      <c r="G38">
+        <v>1.6741649230442499E-2</v>
+      </c>
+      <c r="H38">
+        <v>14.857432400314799</v>
+      </c>
+      <c r="I38">
+        <v>9.9762018419190107E-3</v>
+      </c>
+      <c r="J38">
+        <v>1.2295196947703301E-2</v>
+      </c>
+      <c r="K38">
+        <v>-1.7364702613200299E-2</v>
+      </c>
+      <c r="L38">
+        <v>-6.3770023817872501E-2</v>
+      </c>
+      <c r="M38">
+        <v>-0.209461722223311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="7">
+        <v>38</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D39" s="8">
+        <v>8.1701993417819904E-2</v>
+      </c>
+      <c r="E39">
+        <v>0.19768613617827699</v>
+      </c>
+      <c r="F39">
+        <v>0.24678282560183701</v>
+      </c>
+      <c r="G39">
+        <v>3.42821493426375E-2</v>
+      </c>
+      <c r="H39">
+        <v>9.46291491413721</v>
+      </c>
+      <c r="I39">
+        <v>1.7025621526178199E-2</v>
+      </c>
+      <c r="J39">
+        <v>3.3523932298217499E-2</v>
+      </c>
+      <c r="K39">
+        <v>-2.8077032047968301E-2</v>
+      </c>
+      <c r="L39">
+        <v>-8.2874682178119899E-2</v>
+      </c>
+      <c r="M39">
+        <v>-0.27546737917333503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="7">
+        <v>39</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D40" s="8">
+        <v>7.5832117451459E-2</v>
+      </c>
+      <c r="E40">
+        <v>0.22795385415337799</v>
+      </c>
+      <c r="F40">
+        <v>0.20128925757303101</v>
+      </c>
+      <c r="G40">
+        <v>7.6289619250459698E-2</v>
+      </c>
+      <c r="H40">
+        <v>2.7050744425786601</v>
+      </c>
+      <c r="I40">
+        <v>-3.06583926716937E-2</v>
+      </c>
+      <c r="J40">
+        <v>2.3634722071753201E-2</v>
+      </c>
+      <c r="K40">
+        <v>8.0921406909269994E-2</v>
+      </c>
+      <c r="L40">
+        <v>-9.5716713276281895E-2</v>
+      </c>
+      <c r="M40">
+        <v>-0.142861364257691</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="7">
+        <v>40</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D41" s="8">
+        <v>7.1174648528685602E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.143072409530419</v>
+      </c>
+      <c r="F41">
+        <v>0.22789279516542399</v>
+      </c>
+      <c r="G41">
+        <v>7.2311247304765697E-4</v>
+      </c>
+      <c r="H41">
+        <v>6.1683657414843296</v>
+      </c>
+      <c r="I41">
+        <v>0.124584380780147</v>
+      </c>
+      <c r="J41">
+        <v>-1.2109433333554E-2</v>
+      </c>
+      <c r="K41">
+        <v>1.57698549053263E-2</v>
+      </c>
+      <c r="L41">
+        <v>8.5687061135472697E-2</v>
+      </c>
+      <c r="M41">
+        <v>-0.161916291909491</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="7">
+        <v>41</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D42" s="8">
+        <v>6.8873489222024104E-2</v>
+      </c>
+      <c r="E42">
+        <v>0.21970197543543901</v>
+      </c>
+      <c r="F42">
+        <v>0.28781582662734301</v>
+      </c>
+      <c r="G42">
+        <v>8.1954996991390805E-2</v>
+      </c>
+      <c r="H42">
+        <v>19.914820421340899</v>
+      </c>
+      <c r="I42">
+        <v>-0.27966184923783</v>
+      </c>
+      <c r="J42">
+        <v>-0.18718253298690701</v>
+      </c>
+      <c r="K42">
+        <v>0.35387457942709499</v>
+      </c>
+      <c r="L42">
+        <v>-0.28252030184302401</v>
+      </c>
+      <c r="M42">
+        <v>0.32297151776192801</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43" s="7">
+        <v>42</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D43" s="8">
+        <v>6.1922993098422398E-2</v>
+      </c>
+      <c r="E43">
+        <v>0.19508640875973801</v>
+      </c>
+      <c r="F43">
+        <v>0.215405145935022</v>
+      </c>
+      <c r="G43">
+        <v>7.1240422562892994E-2</v>
+      </c>
+      <c r="H43">
+        <v>-2.88952065317162</v>
+      </c>
+      <c r="I43">
+        <v>-8.2437221239836794E-2</v>
+      </c>
+      <c r="J43">
+        <v>-7.3527587989942494E-2</v>
+      </c>
+      <c r="K43">
+        <v>0.33173610739735898</v>
+      </c>
+      <c r="L43">
+        <v>0.22706873180849299</v>
+      </c>
+      <c r="M43">
+        <v>0.38149240521558597</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="7">
+        <v>43</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D44" s="8">
+        <v>6.0223479862718601E-2</v>
+      </c>
+      <c r="E44">
+        <v>1.7567489612123999E-2</v>
+      </c>
+      <c r="F44">
+        <v>0.23841746697807201</v>
+      </c>
+      <c r="G44">
+        <v>-0.102879470113313</v>
+      </c>
+      <c r="H44">
+        <v>11.8180738587827</v>
+      </c>
+      <c r="I44">
+        <v>7.9330143164037303E-2</v>
+      </c>
+      <c r="J44">
+        <v>-0.105248647132503</v>
+      </c>
+      <c r="K44">
+        <v>6.8814708932609006E-2</v>
+      </c>
+      <c r="L44">
+        <v>5.5550686463051599E-2</v>
+      </c>
+      <c r="M44">
+        <v>0.35219103507642902</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B45" s="7">
+        <v>44</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D45" s="8">
+        <v>5.2642567993717602E-2</v>
+      </c>
+      <c r="E45">
+        <v>-1.8516837746164101E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.30370368715412999</v>
+      </c>
+      <c r="G45">
+        <v>-0.123801973733599</v>
+      </c>
+      <c r="H45">
+        <v>28.136682861799098</v>
+      </c>
+      <c r="I45">
+        <v>-9.6935399330394106E-2</v>
+      </c>
+      <c r="J45">
+        <v>1.2336628818393701E-2</v>
+      </c>
+      <c r="K45">
+        <v>-2.3849951335101101E-2</v>
+      </c>
+      <c r="L45">
+        <v>0.20249208044320099</v>
+      </c>
+      <c r="M45">
+        <v>-0.54575518131674206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B46" s="7">
+        <v>45</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D46" s="8">
+        <v>4.4848889334856E-2</v>
+      </c>
+      <c r="E46">
+        <v>3.4201180591473101E-3</v>
+      </c>
+      <c r="F46">
+        <v>0.157832958305099</v>
+      </c>
+      <c r="G46">
+        <v>-8.6277660610564605E-2</v>
+      </c>
+      <c r="H46">
+        <v>48.506405618371701</v>
+      </c>
+      <c r="I46">
+        <v>0.170870511220237</v>
+      </c>
+      <c r="J46">
+        <v>-7.1085535801670999E-2</v>
+      </c>
+      <c r="K46">
+        <v>-0.17525404728883501</v>
+      </c>
+      <c r="L46">
+        <v>-0.235219656758097</v>
+      </c>
+      <c r="M46">
+        <v>5.2665650486308301E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B47" s="7">
+        <v>46</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D47" s="8">
+        <v>4.3468313930451197E-2</v>
+      </c>
+      <c r="E47">
+        <v>-0.205361817089523</v>
+      </c>
+      <c r="F47">
+        <v>0.12314903718423401</v>
+      </c>
+      <c r="G47">
+        <v>-0.29229844495042501</v>
+      </c>
+      <c r="H47">
+        <v>45.7290219970495</v>
+      </c>
+      <c r="I47">
+        <v>8.5430659278884893E-2</v>
+      </c>
+      <c r="J47">
+        <v>0.39293026063824199</v>
+      </c>
+      <c r="K47">
+        <v>-0.205882169788492</v>
+      </c>
+      <c r="L47">
+        <v>-0.35204511399592098</v>
+      </c>
+      <c r="M47">
+        <v>3.4901483870061999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B48" s="7">
+        <v>47</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D48" s="8">
+        <v>3.7386061495378597E-2</v>
+      </c>
+      <c r="E48">
+        <v>8.9612177905540102E-2</v>
+      </c>
+      <c r="F48">
+        <v>4.93657630259298E-2</v>
+      </c>
+      <c r="G48">
+        <v>1.4840054914782999E-2</v>
+      </c>
+      <c r="H48">
+        <v>-25.657393882550899</v>
+      </c>
+      <c r="I48">
+        <v>-8.8368558254954099E-2</v>
+      </c>
+      <c r="J48">
+        <v>-0.10317450662257199</v>
+      </c>
+      <c r="K48">
+        <v>1.9477435282557298E-2</v>
+      </c>
+      <c r="L48">
+        <v>0.208614733987569</v>
+      </c>
+      <c r="M48">
+        <v>-0.18454245273081399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="7">
+        <v>48</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D49" s="8">
+        <v>3.6756380264439302E-2</v>
+      </c>
+      <c r="E49">
+        <v>8.80039307167364E-2</v>
+      </c>
+      <c r="F49">
+        <v>0.17377336400207799</v>
+      </c>
+      <c r="G49">
+        <v>1.44911701878578E-2</v>
+      </c>
+      <c r="H49">
+        <v>3.46911459406242</v>
+      </c>
+      <c r="I49">
+        <v>-6.6658291361973293E-2</v>
+      </c>
+      <c r="J49">
+        <v>0.24717385332787301</v>
+      </c>
+      <c r="K49">
+        <v>-0.28439418541575701</v>
+      </c>
+      <c r="L49">
+        <v>0.161564143268353</v>
+      </c>
+      <c r="M49">
+        <v>0.15826957351861201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B50" s="7">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D50" s="8">
+        <v>3.3644822920262503E-2</v>
+      </c>
+      <c r="E50">
+        <v>-9.2113452875210597E-2</v>
+      </c>
+      <c r="F50">
+        <v>0.123079726017733</v>
+      </c>
+      <c r="G50">
+        <v>-0.15940309871573599</v>
+      </c>
+      <c r="H50">
+        <v>-27.573503582251998</v>
+      </c>
+      <c r="I50">
+        <v>4.37418310844747E-2</v>
+      </c>
+      <c r="J50">
+        <v>-0.12553350223735699</v>
+      </c>
+      <c r="K50">
+        <v>1.0508264824076999E-2</v>
+      </c>
+      <c r="L50">
+        <v>-0.14406112809482899</v>
+      </c>
+      <c r="M50">
+        <v>-0.23576059196295501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B51" s="7">
+        <v>50</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D51" s="8">
+        <v>2.7280976874451902E-2</v>
+      </c>
+      <c r="E51">
+        <v>2.4475361967980998E-2</v>
+      </c>
+      <c r="F51">
+        <v>0.109397421714065</v>
+      </c>
+      <c r="G51">
+        <v>-3.0086591780922899E-2</v>
+      </c>
+      <c r="H51">
+        <v>-10.1855048910253</v>
+      </c>
+      <c r="I51">
+        <v>4.23194943322368E-2</v>
+      </c>
+      <c r="J51">
+        <v>0.225992364303368</v>
+      </c>
+      <c r="K51">
+        <v>0.35585142527581198</v>
+      </c>
+      <c r="L51">
+        <v>-6.2431414014631897E-2</v>
+      </c>
+      <c r="M51">
+        <v>0.216313956200753</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" s="7">
+        <v>51</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D52" s="8">
+        <v>2.6097335575217099E-2</v>
+      </c>
+      <c r="E52">
+        <v>9.9637062950033106E-2</v>
+      </c>
+      <c r="F52">
+        <v>5.8377837549881302E-2</v>
+      </c>
+      <c r="G52">
+        <v>4.7442391799598901E-2</v>
+      </c>
+      <c r="H52">
+        <v>-2.5954456728161501</v>
+      </c>
+      <c r="I52">
+        <v>-4.4798949840359703E-2</v>
+      </c>
+      <c r="J52">
+        <v>3.3340178560127998E-2</v>
+      </c>
+      <c r="K52">
+        <v>3.9024658881468402E-2</v>
+      </c>
+      <c r="L52">
+        <v>-5.57171595768651E-2</v>
+      </c>
+      <c r="M52">
+        <v>-7.2603863734990198E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B53" s="7">
+        <v>52</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D53" s="8">
+        <v>2.5418098816585799E-2</v>
+      </c>
+      <c r="E53">
+        <v>7.0258309265075203E-2</v>
+      </c>
+      <c r="F53">
+        <v>7.7779900607711602E-2</v>
+      </c>
+      <c r="G53">
+        <v>1.9422111631903601E-2</v>
+      </c>
+      <c r="H53">
+        <v>0.500507151890904</v>
+      </c>
+      <c r="I53">
+        <v>-4.3185458215697602E-2</v>
+      </c>
+      <c r="J53">
+        <v>-1.6258061958784101E-2</v>
+      </c>
+      <c r="K53">
+        <v>1.86473471485562E-2</v>
+      </c>
+      <c r="L53">
+        <v>-7.2963805710874602E-2</v>
+      </c>
+      <c r="M53">
+        <v>-1.7757748881309598E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="7">
+        <v>53</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D54" s="8">
+        <v>2.45250853541439E-2</v>
+      </c>
+      <c r="E54">
+        <v>2.2765413143297199E-2</v>
+      </c>
+      <c r="F54">
+        <v>0.106294980785532</v>
+      </c>
+      <c r="G54">
+        <v>-2.6284757564990699E-2</v>
+      </c>
+      <c r="H54">
+        <v>1.17703454485774</v>
+      </c>
+      <c r="I54">
+        <v>9.5872863966303207E-2</v>
+      </c>
+      <c r="J54">
+        <v>2.6411503689486499E-2</v>
+      </c>
+      <c r="K54">
+        <v>0.13110816796946001</v>
+      </c>
+      <c r="L54">
+        <v>0.207017710901575</v>
+      </c>
+      <c r="M54">
+        <v>-6.3157994132715195E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" s="7">
+        <v>54</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D55" s="8">
+        <v>2.1661801304375099E-2</v>
+      </c>
+      <c r="E55">
+        <v>8.7814488839258201E-2</v>
+      </c>
+      <c r="F55">
+        <v>6.0488418500440698E-2</v>
+      </c>
+      <c r="G55">
+        <v>4.4490886230507898E-2</v>
+      </c>
+      <c r="H55">
+        <v>-2.0615415778120099</v>
+      </c>
+      <c r="I55">
+        <v>-5.8013345637553601E-2</v>
+      </c>
+      <c r="J55">
+        <v>3.10703770883049E-3</v>
+      </c>
+      <c r="K55">
+        <v>3.5307572157110501E-2</v>
+      </c>
+      <c r="L55">
+        <v>-6.1132052049421098E-2</v>
+      </c>
+      <c r="M55">
+        <v>1.99729376961666E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B56" s="7">
+        <v>55</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D56" s="8">
+        <v>2.1163258705686399E-2</v>
+      </c>
+      <c r="E56">
+        <v>7.7035548262039802E-2</v>
+      </c>
+      <c r="F56">
+        <v>4.1150137461097303E-2</v>
+      </c>
+      <c r="G56">
+        <v>3.4709030850666997E-2</v>
+      </c>
+      <c r="H56">
+        <v>-22.6886908768941</v>
+      </c>
+      <c r="I56">
+        <v>-4.2695309909704E-2</v>
+      </c>
+      <c r="J56">
+        <v>0.107614220568147</v>
+      </c>
+      <c r="K56">
+        <v>-3.6319617966614003E-2</v>
+      </c>
+      <c r="L56">
+        <v>7.2436656348188799E-2</v>
+      </c>
+      <c r="M56">
+        <v>-0.18424297461887101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="7">
+        <v>56</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D57" s="8">
+        <v>1.9630386281696801E-2</v>
+      </c>
+      <c r="E57">
+        <v>0.15375669612076101</v>
+      </c>
+      <c r="F57">
+        <v>2.7302271285502101E-2</v>
+      </c>
+      <c r="G57">
+        <v>0.114495923557368</v>
+      </c>
+      <c r="H57">
+        <v>15.664783835847601</v>
+      </c>
+      <c r="I57">
+        <v>-2.4555116702001199E-3</v>
+      </c>
+      <c r="J57">
+        <v>0.14591341765718499</v>
+      </c>
+      <c r="K57">
+        <v>-0.66593175472087096</v>
+      </c>
+      <c r="L57">
+        <v>-0.18953255758670901</v>
+      </c>
+      <c r="M57">
+        <v>-0.53110052720092604</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B58" s="7">
+        <v>57</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D58" s="8">
+        <v>1.6683819811526099E-2</v>
+      </c>
+      <c r="E58">
+        <v>5.7786046319889699E-2</v>
+      </c>
+      <c r="F58">
+        <v>3.9844326323113501E-2</v>
+      </c>
+      <c r="G58">
+        <v>2.44184066968374E-2</v>
+      </c>
+      <c r="H58">
+        <v>-0.64750618130332804</v>
+      </c>
+      <c r="I58">
+        <v>-3.3433529652196502E-2</v>
+      </c>
+      <c r="J58">
+        <v>1.20638645277126E-4</v>
+      </c>
+      <c r="K58">
+        <v>-3.9838327745289399E-2</v>
+      </c>
+      <c r="L58">
+        <v>-8.0539020388915097E-2</v>
+      </c>
+      <c r="M58">
+        <v>-4.8479594062212902E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="7">
+        <v>58</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D59" s="8">
+        <v>1.5308548497312301E-2</v>
+      </c>
+      <c r="E59">
+        <v>3.0116562316330701E-2</v>
+      </c>
+      <c r="F59">
+        <v>1.2256109338019801E-2</v>
+      </c>
+      <c r="G59">
+        <v>-5.0053467829375695E-4</v>
+      </c>
+      <c r="H59">
+        <v>-13.465070842476999</v>
+      </c>
+      <c r="I59">
+        <v>-6.0640501339299699E-2</v>
+      </c>
+      <c r="J59">
+        <v>3.7056385566991201E-2</v>
+      </c>
+      <c r="K59">
+        <v>-5.0694500332194303E-2</v>
+      </c>
+      <c r="L59">
+        <v>-0.255941127778885</v>
+      </c>
+      <c r="M59">
+        <v>-0.40294486029582699</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B60" s="7">
+        <v>59</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D60" s="8">
+        <v>1.40137003032085E-2</v>
+      </c>
+      <c r="E60">
+        <v>5.4261899790283799E-2</v>
+      </c>
+      <c r="F60">
+        <v>3.2844755657006897E-2</v>
+      </c>
+      <c r="G60">
+        <v>2.6234499183866701E-2</v>
+      </c>
+      <c r="H60">
+        <v>-1.58897786707352</v>
+      </c>
+      <c r="I60">
+        <v>-4.71892578385859E-2</v>
+      </c>
+      <c r="J60">
+        <v>1.5736496344560001E-2</v>
+      </c>
+      <c r="K60">
+        <v>1.16373062341484E-2</v>
+      </c>
+      <c r="L60">
+        <v>-5.3905064888861397E-2</v>
+      </c>
+      <c r="M60">
+        <v>-9.0847244674258903E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="7">
+        <v>60</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D61" s="8">
+        <v>9.4863001500239096E-3</v>
+      </c>
+      <c r="E61">
+        <v>-1.68759400934534E-2</v>
+      </c>
+      <c r="F61">
+        <v>3.8579571430166798E-2</v>
+      </c>
+      <c r="G61">
+        <v>-3.5848540393501202E-2</v>
+      </c>
+      <c r="H61">
+        <v>5.1703748538712304</v>
+      </c>
+      <c r="I61">
+        <v>4.72160055974849E-2</v>
+      </c>
+      <c r="J61">
+        <v>-9.7463728552135004E-2</v>
+      </c>
+      <c r="K61">
+        <v>-8.7614080056700808E-3</v>
+      </c>
+      <c r="L61">
+        <v>0.217698282051007</v>
+      </c>
+      <c r="M61">
+        <v>-0.284160014782399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B62" s="7">
+        <v>61</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D62" s="8">
+        <v>8.7021352247985805E-3</v>
+      </c>
+      <c r="E62">
+        <v>4.2252327228289699E-2</v>
+      </c>
+      <c r="F62">
+        <v>6.6527336199528997E-2</v>
+      </c>
+      <c r="G62">
+        <v>2.48480567786925E-2</v>
+      </c>
+      <c r="H62">
+        <v>6.1159259034759899</v>
+      </c>
+      <c r="I62">
+        <v>0.20227641593102599</v>
+      </c>
+      <c r="J62">
+        <v>-0.18379525636319599</v>
+      </c>
+      <c r="K62">
+        <v>-0.184307512785268</v>
+      </c>
+      <c r="L62">
+        <v>-0.31575605920272398</v>
+      </c>
+      <c r="M62">
+        <v>0.14429695299554199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" s="7">
+        <v>62</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D63" s="8">
+        <v>7.9411753237913305E-3</v>
+      </c>
+      <c r="E63">
+        <v>5.1005645197609098E-2</v>
+      </c>
+      <c r="F63">
+        <v>1.0388651258154699E-2</v>
+      </c>
+      <c r="G63">
+        <v>3.5123294550026503E-2</v>
+      </c>
+      <c r="H63">
+        <v>-6.46084090327812</v>
+      </c>
+      <c r="I63">
+        <v>-3.3069209368277001E-2</v>
+      </c>
+      <c r="J63">
+        <v>-2.1674175387366199E-2</v>
+      </c>
+      <c r="K63">
+        <v>-1.33638492520975E-2</v>
+      </c>
+      <c r="L63">
+        <v>-8.0114139413913904E-2</v>
+      </c>
+      <c r="M63">
+        <v>-3.9138672707091898E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64" s="7">
+        <v>63</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D64" s="8">
+        <v>7.3251973683627503E-3</v>
+      </c>
+      <c r="E64">
+        <v>1.1446713893579701E-2</v>
+      </c>
+      <c r="F64">
+        <v>2.5223289068721799E-2</v>
+      </c>
+      <c r="G64">
+        <v>-3.2036808431458201E-3</v>
+      </c>
+      <c r="H64">
+        <v>-1.41037922641874</v>
+      </c>
+      <c r="I64">
+        <v>-3.6805592664439002E-2</v>
+      </c>
+      <c r="J64">
+        <v>-4.6307206223476201E-3</v>
+      </c>
+      <c r="K64">
+        <v>-3.88276138505836E-2</v>
+      </c>
+      <c r="L64">
+        <v>-6.63322751388052E-2</v>
+      </c>
+      <c r="M64">
+        <v>-7.5257336185637694E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B65" s="7">
+        <v>64</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D65" s="8">
+        <v>6.61426795291603E-3</v>
+      </c>
+      <c r="E65">
+        <v>-2.2543424808543198E-3</v>
+      </c>
+      <c r="F65">
+        <v>7.4407445040261505E-2</v>
+      </c>
+      <c r="G65">
+        <v>-1.54828783866864E-2</v>
+      </c>
+      <c r="H65">
+        <v>65.193262415126</v>
+      </c>
+      <c r="I65">
+        <v>5.6703412360608899E-2</v>
+      </c>
+      <c r="J65">
+        <v>4.1105231932512802E-2</v>
+      </c>
+      <c r="K65">
+        <v>0.30800747339866402</v>
+      </c>
+      <c r="L65">
+        <v>0.32665898009031702</v>
+      </c>
+      <c r="M65">
+        <v>0.41515628098125101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="7">
+        <v>65</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D66" s="8">
+        <v>5.0371736608845301E-3</v>
+      </c>
+      <c r="E66">
+        <v>4.9638009963763101E-2</v>
+      </c>
+      <c r="F66">
+        <v>4.4684856809661402E-2</v>
+      </c>
+      <c r="G66">
+        <v>3.9563662641994103E-2</v>
+      </c>
+      <c r="H66">
+        <v>12.3586219992625</v>
+      </c>
+      <c r="I66">
+        <v>-0.19846777931910101</v>
+      </c>
+      <c r="J66">
+        <v>-0.19086859500575901</v>
+      </c>
+      <c r="K66">
+        <v>0.205152781717827</v>
+      </c>
+      <c r="L66">
+        <v>0.219325624654748</v>
+      </c>
+      <c r="M66">
+        <v>0.13641374398814901</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="7">
+        <v>66</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D67" s="8">
+        <v>4.6696501279256701E-3</v>
+      </c>
+      <c r="E67">
+        <v>5.40498691694749E-2</v>
+      </c>
+      <c r="F67">
+        <v>-5.1821215407590803E-3</v>
+      </c>
+      <c r="G67">
+        <v>4.47105689136236E-2</v>
+      </c>
+      <c r="H67">
+        <v>-6.8287211764569404</v>
+      </c>
+      <c r="I67">
+        <v>-5.1239701925350302E-2</v>
+      </c>
+      <c r="J67">
+        <v>-2.88224507850031E-2</v>
+      </c>
+      <c r="K67">
+        <v>1.4861928503483E-2</v>
+      </c>
+      <c r="L67">
+        <v>-2.37729525492144E-2</v>
+      </c>
+      <c r="M67">
+        <v>1.4493319970587899E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" s="7">
+        <v>67</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D68" s="8">
+        <v>3.4863823229043102E-3</v>
+      </c>
+      <c r="E68">
+        <v>1.6419765721253501E-2</v>
+      </c>
+      <c r="F68">
+        <v>-3.20656869878013E-3</v>
+      </c>
+      <c r="G68">
+        <v>9.4470010754448708E-3</v>
+      </c>
+      <c r="H68">
+        <v>-3.0920760023448501</v>
+      </c>
+      <c r="I68">
+        <v>-3.7268961716063198E-2</v>
+      </c>
+      <c r="J68">
+        <v>-3.7456512465949297E-2</v>
+      </c>
+      <c r="K68">
+        <v>0.11995513248252899</v>
+      </c>
+      <c r="L68">
+        <v>-4.6896948699639202E-2</v>
+      </c>
+      <c r="M68">
+        <v>5.4393434232346299E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D69" s="3">
+        <v>-1.1721503962309799E-3</v>
+      </c>
+      <c r="E69">
+        <v>-6.1465762658314297E-3</v>
+      </c>
+      <c r="F69">
+        <v>-6.8452217579019099E-3</v>
+      </c>
+      <c r="G69">
+        <v>-3.8022754733694798E-3</v>
+      </c>
+      <c r="H69">
+        <v>-1.1581923475951199</v>
+      </c>
+      <c r="I69">
+        <v>-4.6289885151385199E-2</v>
+      </c>
+      <c r="J69">
+        <v>-2.39103266010703E-2</v>
+      </c>
+      <c r="K69">
+        <v>6.8263962951052401E-2</v>
+      </c>
+      <c r="L69">
+        <v>-3.2537531379451097E-2</v>
+      </c>
+      <c r="M69">
+        <v>1.7094822415937499E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D70" s="3">
+        <v>-2.8549427028213602E-3</v>
+      </c>
+      <c r="E70">
+        <v>-1.2968575311101899E-3</v>
+      </c>
+      <c r="F70">
+        <v>-1.34142035739596E-2</v>
+      </c>
+      <c r="G70">
+        <v>4.4130278745325201E-3</v>
+      </c>
+      <c r="H70">
+        <v>-3.9226540784869801</v>
+      </c>
+      <c r="I70">
+        <v>-4.2872358712794503E-2</v>
+      </c>
+      <c r="J70">
+        <v>-1.32844204776523E-2</v>
+      </c>
+      <c r="K70">
+        <v>4.67455704020475E-2</v>
+      </c>
+      <c r="L70">
+        <v>-4.83805019308505E-2</v>
+      </c>
+      <c r="M70">
+        <v>2.5374210835006801E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" t="s">
+        <v>236</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D71" s="3">
+        <v>-5.5456216946929496E-3</v>
+      </c>
+      <c r="E71">
+        <v>-3.0336378969190499E-2</v>
+      </c>
+      <c r="F71">
+        <v>-3.8663326365946403E-2</v>
+      </c>
+      <c r="G71">
+        <v>-1.92451355798046E-2</v>
+      </c>
+      <c r="H71">
+        <v>-4.1883861346971303</v>
+      </c>
+      <c r="I71">
+        <v>9.4923137011355806E-3</v>
+      </c>
+      <c r="J71">
+        <v>6.3882994890649594E-2</v>
+      </c>
+      <c r="K71">
+        <v>6.8295210878082699E-2</v>
+      </c>
+      <c r="L71">
+        <v>4.58653997474536E-2</v>
+      </c>
+      <c r="M71">
+        <v>1.5733353809266298E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" t="s">
+        <v>268</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D72" s="3">
+        <v>-5.7172392766146104E-3</v>
+      </c>
+      <c r="E72">
+        <v>4.7065099844017799E-2</v>
+      </c>
+      <c r="F72">
+        <v>-3.8459860733389098E-2</v>
+      </c>
+      <c r="G72">
+        <v>5.8499578397247003E-2</v>
+      </c>
+      <c r="H72">
+        <v>13.971932860899701</v>
+      </c>
+      <c r="I72">
+        <v>8.6036157410759095E-2</v>
+      </c>
+      <c r="J72">
+        <v>0.26842551933197201</v>
+      </c>
+      <c r="K72">
+        <v>-9.6766620872255599E-2</v>
+      </c>
+      <c r="L72">
+        <v>-8.2346754890572998E-2</v>
+      </c>
+      <c r="M72">
+        <v>-0.88826557378721005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" t="s">
+        <v>188</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D73" s="3">
+        <v>-6.0590666844574804E-3</v>
+      </c>
+      <c r="E73">
+        <v>-5.16808192772251E-2</v>
+      </c>
+      <c r="F73">
+        <v>-1.7223205391778702E-2</v>
+      </c>
+      <c r="G73">
+        <v>-3.9562685908310101E-2</v>
+      </c>
+      <c r="H73">
+        <v>9.45584217529988</v>
+      </c>
+      <c r="I73">
+        <v>4.5763406097881897E-2</v>
+      </c>
+      <c r="J73">
+        <v>1.1857662586434E-2</v>
+      </c>
+      <c r="K73">
+        <v>-5.7935595934758499E-2</v>
+      </c>
+      <c r="L73">
+        <v>4.3885111805599099E-2</v>
+      </c>
+      <c r="M73">
+        <v>-1.5948399841987499E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" t="s">
+        <v>276</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D74" s="3">
+        <v>-8.5486467745753292E-3</v>
+      </c>
+      <c r="E74">
+        <v>0.29945800024006403</v>
+      </c>
+      <c r="F74">
+        <v>-0.17104102862451501</v>
+      </c>
+      <c r="G74">
+        <v>0.31655529378921399</v>
+      </c>
+      <c r="H74">
+        <v>-50.660513043622402</v>
+      </c>
+      <c r="I74">
+        <v>-2.5920358740750198E-2</v>
+      </c>
+      <c r="J74">
+        <v>7.0751264971171096E-2</v>
+      </c>
+      <c r="K74">
+        <v>-0.253673356788713</v>
+      </c>
+      <c r="L74">
+        <v>0.103199549738531</v>
+      </c>
+      <c r="M74">
+        <v>-0.18167255428440601</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" t="s">
+        <v>194</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D75" s="3">
+        <v>-9.0736554217846505E-3</v>
+      </c>
+      <c r="E75">
+        <v>-6.1435285022963901E-2</v>
+      </c>
+      <c r="F75">
+        <v>-1.5719448519640199E-2</v>
+      </c>
+      <c r="G75">
+        <v>-4.3287974179394603E-2</v>
+      </c>
+      <c r="H75">
+        <v>8.4934849072227898</v>
+      </c>
+      <c r="I75">
+        <v>2.7890613656159999E-2</v>
+      </c>
+      <c r="J75">
+        <v>-2.7238181407858199E-2</v>
+      </c>
+      <c r="K75">
+        <v>-9.8861223213494401E-2</v>
+      </c>
+      <c r="L75">
+        <v>6.2977461487221095E-2</v>
+      </c>
+      <c r="M75">
+        <v>8.3069203461939509E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D76" s="3">
+        <v>-1.12923490446258E-2</v>
+      </c>
+      <c r="E76">
+        <v>-0.25734680408659999</v>
+      </c>
+      <c r="F76">
+        <v>6.7621178758659098E-2</v>
+      </c>
+      <c r="G76">
+        <v>-0.23476210599734801</v>
+      </c>
+      <c r="H76">
+        <v>79.579538448611601</v>
+      </c>
+      <c r="I76">
+        <v>-5.3219306064247497E-2</v>
+      </c>
+      <c r="J76">
+        <v>-0.182633634412358</v>
+      </c>
+      <c r="K76">
+        <v>0.35576114560913102</v>
+      </c>
+      <c r="L76">
+        <v>0.39250976533604598</v>
+      </c>
+      <c r="M76">
+        <v>0.5513601001324</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" t="s">
+        <v>234</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D77" s="3">
+        <v>-1.1736712894661E-2</v>
+      </c>
+      <c r="E77">
+        <v>-4.7044543718529799E-2</v>
+      </c>
+      <c r="F77">
+        <v>-4.3049597479150201E-2</v>
+      </c>
+      <c r="G77">
+        <v>-2.3571117929207901E-2</v>
+      </c>
+      <c r="H77">
+        <v>-8.1612404805023093</v>
+      </c>
+      <c r="I77">
+        <v>1.16467038392202E-2</v>
+      </c>
+      <c r="J77">
+        <v>6.5936960010482201E-2</v>
+      </c>
+      <c r="K77">
+        <v>9.6488416109539399E-2</v>
+      </c>
+      <c r="L77">
+        <v>3.0954497405631599E-2</v>
+      </c>
+      <c r="M77">
+        <v>7.85935830208839E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" t="s">
+        <v>190</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D78" s="3">
+        <v>-1.33411602786946E-2</v>
+      </c>
+      <c r="E78">
+        <v>-5.40536165750213E-2</v>
+      </c>
+      <c r="F78">
+        <v>-3.8332840204176502E-2</v>
+      </c>
+      <c r="G78">
+        <v>-2.7371296017632E-2</v>
+      </c>
+      <c r="H78">
+        <v>4.4403904720268903</v>
+      </c>
+      <c r="I78">
+        <v>4.4835785794670097E-2</v>
+      </c>
+      <c r="J78">
+        <v>-2.2287833646331801E-2</v>
+      </c>
+      <c r="K78">
+        <v>-8.0627513847831095E-2</v>
+      </c>
+      <c r="L78">
+        <v>4.3933298510295198E-2</v>
+      </c>
+      <c r="M78">
+        <v>2.79418891706983E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" t="s">
+        <v>224</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D79" s="3">
+        <v>-1.33629602199854E-2</v>
+      </c>
+      <c r="E79">
+        <v>-1.45126027230397E-2</v>
+      </c>
+      <c r="F79">
+        <v>-5.88248091740841E-2</v>
+      </c>
+      <c r="G79">
+        <v>1.2213317716931E-2</v>
+      </c>
+      <c r="H79">
+        <v>-5.7230523789089798</v>
+      </c>
+      <c r="I79">
+        <v>-3.73981874125155E-2</v>
+      </c>
+      <c r="J79">
+        <v>-7.04900525356202E-3</v>
+      </c>
+      <c r="K79">
+        <v>-1.16494358837607E-2</v>
+      </c>
+      <c r="L79">
+        <v>-5.5704400625644301E-2</v>
+      </c>
+      <c r="M79">
+        <v>5.9663305729831199E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" t="s">
+        <v>184</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D80" s="3">
+        <v>-1.35858397577536E-2</v>
+      </c>
+      <c r="E80">
+        <v>-4.64493967985578E-2</v>
+      </c>
+      <c r="F80">
+        <v>-4.7601759063366202E-2</v>
+      </c>
+      <c r="G80">
+        <v>-1.9277717283050701E-2</v>
+      </c>
+      <c r="H80">
+        <v>4.9629488373417399</v>
+      </c>
+      <c r="I80">
+        <v>3.4077785297022399E-2</v>
+      </c>
+      <c r="J80">
+        <v>1.58333926981276E-3</v>
+      </c>
+      <c r="K80">
+        <v>-8.9385750147038798E-2</v>
+      </c>
+      <c r="L80">
+        <v>4.0842539176179499E-2</v>
+      </c>
+      <c r="M80">
+        <v>-1.4329756271671901E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" t="s">
+        <v>198</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D81" s="3">
+        <v>-1.4565842679001699E-2</v>
+      </c>
+      <c r="E81">
+        <v>-6.4014603416753302E-2</v>
+      </c>
+      <c r="F81">
+        <v>-3.3574050334290999E-2</v>
+      </c>
+      <c r="G81">
+        <v>-3.48829180587499E-2</v>
+      </c>
+      <c r="H81">
+        <v>6.2277251401302802</v>
+      </c>
+      <c r="I81" s="1">
+        <v>-3.5530539951163703E-5</v>
+      </c>
+      <c r="J81">
+        <v>-2.0742059175417601E-2</v>
+      </c>
+      <c r="K81">
+        <v>-1.5638286704102701E-2</v>
+      </c>
+      <c r="L81">
+        <v>4.8004852639981901E-2</v>
+      </c>
+      <c r="M81">
+        <v>8.4357144097437595E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" t="s">
+        <v>232</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D82" s="3">
+        <v>-1.4976391053010201E-2</v>
+      </c>
+      <c r="E82">
+        <v>-2.02659106352659E-2</v>
+      </c>
+      <c r="F82">
+        <v>-7.2233254508097297E-2</v>
+      </c>
+      <c r="G82">
+        <v>9.6868714707544993E-3</v>
+      </c>
+      <c r="H82">
+        <v>-8.2736487612303602</v>
+      </c>
+      <c r="I82">
+        <v>-1.3601067425188899E-2</v>
+      </c>
+      <c r="J82">
+        <v>2.7106919290024099E-2</v>
+      </c>
+      <c r="K82">
+        <v>0.11486830193179499</v>
+      </c>
+      <c r="L82">
+        <v>8.88967950760375E-3</v>
+      </c>
+      <c r="M82">
+        <v>7.3203960674323207E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" t="s">
+        <v>196</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D83" s="3">
+        <v>-1.5183368782938699E-2</v>
+      </c>
+      <c r="E83">
+        <v>-5.2338418595371299E-2</v>
+      </c>
+      <c r="F83">
+        <v>-3.4754400422718199E-2</v>
+      </c>
+      <c r="G83">
+        <v>-2.19716810294939E-2</v>
+      </c>
+      <c r="H83">
+        <v>6.8257174002005696</v>
+      </c>
+      <c r="I83">
+        <v>2.0533567663315801E-2</v>
+      </c>
+      <c r="J83">
+        <v>3.9295140086493901E-4</v>
+      </c>
+      <c r="K83">
+        <v>-6.3615773671638204E-2</v>
+      </c>
+      <c r="L83">
+        <v>4.5554856758720098E-2</v>
+      </c>
+      <c r="M83">
+        <v>4.6171960241937898E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D84" s="3">
+        <v>-1.67758047292163E-2</v>
+      </c>
+      <c r="E84">
+        <v>2.5676899932481501E-2</v>
+      </c>
+      <c r="F84">
+        <v>-6.2159009549923899E-2</v>
+      </c>
+      <c r="G84">
+        <v>5.9228509390914202E-2</v>
+      </c>
+      <c r="H84">
+        <v>-3.7927950289958399</v>
+      </c>
+      <c r="I84">
+        <v>1.32567415434752E-2</v>
+      </c>
+      <c r="J84">
+        <v>-3.4394465517282501E-2</v>
+      </c>
+      <c r="K84">
+        <v>2.84886797836135E-3</v>
+      </c>
+      <c r="L84">
+        <v>-9.3224111780850008E-3</v>
+      </c>
+      <c r="M84">
+        <v>1.8055429207325498E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D85" s="3">
+        <v>-1.7683912738132201E-2</v>
+      </c>
+      <c r="E85">
+        <v>3.0905050819144599E-2</v>
+      </c>
+      <c r="F85">
+        <v>-8.3298741279233299E-2</v>
+      </c>
+      <c r="G85">
+        <v>6.6272876295408997E-2</v>
+      </c>
+      <c r="H85">
+        <v>-4.0048957741615103</v>
+      </c>
+      <c r="I85">
+        <v>7.4639985452660297E-3</v>
+      </c>
+      <c r="J85">
+        <v>5.0340616743224003E-3</v>
+      </c>
+      <c r="K85">
+        <v>-4.1670769406583798E-2</v>
+      </c>
+      <c r="L85">
+        <v>-2.13140470276862E-2</v>
+      </c>
+      <c r="M85">
+        <v>2.5531262439220498E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D86" s="3">
+        <v>-1.8643887894125199E-2</v>
+      </c>
+      <c r="E86">
+        <v>-7.2808067937243703E-2</v>
+      </c>
+      <c r="F86">
+        <v>-4.98647901564983E-2</v>
+      </c>
+      <c r="G86">
+        <v>-3.5520292148993299E-2</v>
+      </c>
+      <c r="H86">
+        <v>5.3133469313463602</v>
+      </c>
+      <c r="I86">
+        <v>2.0693027422962001E-2</v>
+      </c>
+      <c r="J86">
+        <v>1.8529735231180799E-2</v>
+      </c>
+      <c r="K86">
+        <v>-6.6173029094466401E-2</v>
+      </c>
+      <c r="L86">
+        <v>5.7132926272962598E-2</v>
+      </c>
+      <c r="M86">
+        <v>1.03292834273895E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D87" s="3">
+        <v>-1.8735760242839301E-2</v>
+      </c>
+      <c r="E87">
+        <v>1.7572290070423598E-2</v>
+      </c>
+      <c r="F87">
+        <v>-6.3632977546856997E-2</v>
+      </c>
+      <c r="G87">
+        <v>5.5043810556102198E-2</v>
+      </c>
+      <c r="H87">
+        <v>-2.7502102674945998</v>
+      </c>
+      <c r="I87">
+        <v>4.39878832447006E-3</v>
+      </c>
+      <c r="J87">
+        <v>-8.0146642486469001E-4</v>
+      </c>
+      <c r="K87">
+        <v>-5.5071389923059003E-2</v>
+      </c>
+      <c r="L87">
+        <v>-2.2330039607334099E-2</v>
+      </c>
+      <c r="M87">
+        <v>3.49303803458694E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D88" s="3">
+        <v>-1.8868348849110501E-2</v>
+      </c>
+      <c r="E88">
+        <v>-9.5487279814685001E-3</v>
+      </c>
+      <c r="F88">
+        <v>-6.4177683614944803E-2</v>
+      </c>
+      <c r="G88">
+        <v>2.8187969716752401E-2</v>
+      </c>
+      <c r="H88">
+        <v>1.7810176627538601</v>
+      </c>
+      <c r="I88">
+        <v>1.2493349200962499E-2</v>
+      </c>
+      <c r="J88">
+        <v>1.0133662890341601E-2</v>
+      </c>
+      <c r="K88">
+        <v>3.73587247709797E-3</v>
+      </c>
+      <c r="L88">
+        <v>3.0342952203807901E-2</v>
+      </c>
+      <c r="M88">
+        <v>-2.1775886485711E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D89" s="3">
+        <v>-1.90875304021298E-2</v>
+      </c>
+      <c r="E89">
+        <v>-3.9670464770571803E-2</v>
+      </c>
+      <c r="F89">
+        <v>-4.7864213794254103E-2</v>
+      </c>
+      <c r="G89">
+        <v>-1.49540396631217E-3</v>
+      </c>
+      <c r="H89">
+        <v>-0.68408411046100703</v>
+      </c>
+      <c r="I89">
+        <v>1.4790374075506599E-2</v>
+      </c>
+      <c r="J89">
+        <v>-2.8171758931838799E-2</v>
+      </c>
+      <c r="K89">
+        <v>-4.4488537760287002E-2</v>
+      </c>
+      <c r="L89">
+        <v>1.2437095978456301E-2</v>
+      </c>
+      <c r="M89">
+        <v>6.0264493957219497E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" t="s">
+        <v>228</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D90" s="3">
+        <v>-2.11567829252148E-2</v>
+      </c>
+      <c r="E90">
+        <v>-7.0024605754257105E-2</v>
+      </c>
+      <c r="F90">
+        <v>-6.6052625165951603E-2</v>
+      </c>
+      <c r="G90">
+        <v>-2.7711039903827599E-2</v>
+      </c>
+      <c r="H90">
+        <v>-3.7222544899067498</v>
+      </c>
+      <c r="I90">
+        <v>-6.1116881628039696E-3</v>
+      </c>
+      <c r="J90">
+        <v>2.99749908909226E-2</v>
+      </c>
+      <c r="K90">
+        <v>0.102710562995746</v>
+      </c>
+      <c r="L90">
+        <v>3.9706444333137497E-2</v>
+      </c>
+      <c r="M90">
+        <v>0.123525743868001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" t="s">
+        <v>60</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D91" s="3">
+        <v>-2.1995223860086399E-2</v>
+      </c>
+      <c r="E91">
+        <v>-1.99851867184473E-2</v>
+      </c>
+      <c r="F91">
+        <v>-7.3705474169176596E-2</v>
+      </c>
+      <c r="G91">
+        <v>2.4005261001725502E-2</v>
+      </c>
+      <c r="H91">
+        <v>-6.6631833274436598</v>
+      </c>
+      <c r="I91">
+        <v>-7.4719819824201202E-4</v>
+      </c>
+      <c r="J91">
+        <v>-3.1368621337513898E-2</v>
+      </c>
+      <c r="K91">
+        <v>4.7756393566176503E-2</v>
+      </c>
+      <c r="L91">
+        <v>-1.3695075156844301E-2</v>
+      </c>
+      <c r="M91">
+        <v>6.6504916695429905E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D92" s="3">
+        <v>-2.30032353028796E-2</v>
+      </c>
+      <c r="E92">
+        <v>-1.17895285918972E-2</v>
+      </c>
+      <c r="F92">
+        <v>-7.6274905667245596E-2</v>
+      </c>
+      <c r="G92">
+        <v>3.4216942013862002E-2</v>
+      </c>
+      <c r="H92">
+        <v>-5.5712452208115097</v>
+      </c>
+      <c r="I92">
+        <v>3.1502144412003399E-3</v>
+      </c>
+      <c r="J92">
+        <v>3.0650326267702602E-2</v>
+      </c>
+      <c r="K92">
+        <v>-9.4604970672003602E-2</v>
+      </c>
+      <c r="L92">
+        <v>4.2233972250143498E-2</v>
+      </c>
+      <c r="M92">
+        <v>-6.7558785000227202E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D93" s="3">
+        <v>-2.31265350858594E-2</v>
+      </c>
+      <c r="E93">
+        <v>1.5747296969395901E-2</v>
+      </c>
+      <c r="F93">
+        <v>-9.6906172406044197E-2</v>
+      </c>
+      <c r="G93">
+        <v>6.20003671411146E-2</v>
+      </c>
+      <c r="H93">
+        <v>-4.01447455486666</v>
+      </c>
+      <c r="I93">
+        <v>1.5186196423753301E-2</v>
+      </c>
+      <c r="J93">
+        <v>-7.9029262040712107E-3</v>
+      </c>
+      <c r="K93">
+        <v>1.5291442163779399E-4</v>
+      </c>
+      <c r="L93">
+        <v>9.0245910805775605E-3</v>
+      </c>
+      <c r="M93">
+        <v>2.1317474678760901E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D94" s="3">
+        <v>-2.3136164228878101E-2</v>
+      </c>
+      <c r="E94">
+        <v>-9.9324271518672805E-2</v>
+      </c>
+      <c r="F94">
+        <v>-4.8213987811248402E-2</v>
+      </c>
+      <c r="G94">
+        <v>-5.3051943060916602E-2</v>
+      </c>
+      <c r="H94">
+        <v>1.75733709361261</v>
+      </c>
+      <c r="I94">
+        <v>2.0611751708467099E-2</v>
+      </c>
+      <c r="J94">
+        <v>5.1509914142392104E-3</v>
+      </c>
+      <c r="K94">
+        <v>-1.76437656336734E-3</v>
+      </c>
+      <c r="L94">
+        <v>1.05942593825924E-2</v>
+      </c>
+      <c r="M94">
+        <v>6.9841699896339204E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D95" s="3">
+        <v>-2.33556602860755E-2</v>
+      </c>
+      <c r="E95">
+        <v>-6.03173679637218E-2</v>
+      </c>
+      <c r="F95">
+        <v>-5.6084500290998998E-2</v>
+      </c>
+      <c r="G95">
+        <v>-1.36060473915709E-2</v>
+      </c>
+      <c r="H95">
+        <v>-3.5827529668595202</v>
+      </c>
+      <c r="I95">
+        <v>-7.4142430992661899E-3</v>
+      </c>
+      <c r="J95">
+        <v>-2.6129594543665001E-2</v>
+      </c>
+      <c r="K95">
+        <v>4.2908613991880902E-2</v>
+      </c>
+      <c r="L95">
+        <v>5.26718370067299E-2</v>
+      </c>
+      <c r="M95">
+        <v>0.135307198528412</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D96" s="3">
+        <v>-2.46785316434752E-2</v>
+      </c>
+      <c r="E96">
+        <v>-0.13849151761923401</v>
+      </c>
+      <c r="F96">
+        <v>2.3462615520589099E-2</v>
+      </c>
+      <c r="G96">
+        <v>-8.9134454332284105E-2</v>
+      </c>
+      <c r="H96">
+        <v>-11.707169135469201</v>
+      </c>
+      <c r="I96">
+        <v>3.3601346518442703E-2</v>
+      </c>
+      <c r="J96">
+        <v>-2.8097742449132702E-2</v>
+      </c>
+      <c r="K96">
+        <v>-0.37738672793393502</v>
+      </c>
+      <c r="L96">
+        <v>-8.0495618475133299E-2</v>
+      </c>
+      <c r="M96">
+        <v>-0.31855895911659798</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" t="s">
+        <v>294</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D97" s="3">
+        <v>-2.5035200963164601E-2</v>
+      </c>
+      <c r="E97">
+        <v>0.129320512959268</v>
+      </c>
+      <c r="F97">
+        <v>-7.1257947666329396E-2</v>
+      </c>
+      <c r="G97">
+        <v>0.179390914885597</v>
+      </c>
+      <c r="H97">
+        <v>41.264080891551501</v>
+      </c>
+      <c r="I97">
+        <v>-2.66593807582638E-4</v>
+      </c>
+      <c r="J97">
+        <v>0.147440227615766</v>
+      </c>
+      <c r="K97">
+        <v>0.22193038073155399</v>
+      </c>
+      <c r="L97">
+        <v>2.6400742869469699E-2</v>
+      </c>
+      <c r="M97">
+        <v>0.49980559394576801</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" t="s">
+        <v>306</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D98" s="3">
+        <v>-2.6509574739523201E-2</v>
+      </c>
+      <c r="E98">
+        <v>-3.4570131514023897E-2</v>
+      </c>
+      <c r="F98">
+        <v>-8.0932833683334704E-2</v>
+      </c>
+      <c r="G98">
+        <v>1.8449017965022602E-2</v>
+      </c>
+      <c r="H98">
+        <v>-5.9104471334451496</v>
+      </c>
+      <c r="I98">
+        <v>-2.7518934838848701E-2</v>
+      </c>
+      <c r="J98">
+        <v>3.9557547954474602E-2</v>
+      </c>
+      <c r="K98">
+        <v>-0.198222147016546</v>
+      </c>
+      <c r="L98">
+        <v>4.8247430924743803E-2</v>
+      </c>
+      <c r="M98">
+        <v>-0.42261138853340402</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" t="s">
+        <v>230</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D99" s="3">
+        <v>-2.6773049186098598E-2</v>
+      </c>
+      <c r="E99">
+        <v>-7.56254581817426E-2</v>
+      </c>
+      <c r="F99">
+        <v>-8.2346249594166795E-2</v>
+      </c>
+      <c r="G99">
+        <v>-2.2079359809545399E-2</v>
+      </c>
+      <c r="H99">
+        <v>-6.2222158603395004</v>
+      </c>
+      <c r="I99">
+        <v>1.12500127987363E-2</v>
+      </c>
+      <c r="J99">
+        <v>1.6740933254664601E-2</v>
+      </c>
+      <c r="K99">
+        <v>0.13670982794367201</v>
+      </c>
+      <c r="L99">
+        <v>6.3163373055235894E-2</v>
+      </c>
+      <c r="M99">
+        <v>0.11696577021954099</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D100" s="3">
+        <v>-2.6820402501692799E-2</v>
+      </c>
+      <c r="E100">
+        <v>-9.8209623727351703E-2</v>
+      </c>
+      <c r="F100">
+        <v>-5.4898917380813601E-2</v>
+      </c>
+      <c r="G100">
+        <v>-4.4568818723966099E-2</v>
+      </c>
+      <c r="H100">
+        <v>3.3046881654806102</v>
+      </c>
+      <c r="I100">
+        <v>2.31956996551404E-2</v>
+      </c>
+      <c r="J100">
+        <v>6.2344854335668904E-3</v>
+      </c>
+      <c r="K100">
+        <v>-9.0711706364818095E-2</v>
+      </c>
+      <c r="L100">
+        <v>4.81873839184161E-2</v>
+      </c>
+      <c r="M100">
+        <v>5.3819919589741999E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D101" s="3">
+        <v>-2.7050170375771201E-2</v>
+      </c>
+      <c r="E101">
+        <v>-0.101788260107871</v>
+      </c>
+      <c r="F101">
+        <v>-7.6652119781406597E-2</v>
+      </c>
+      <c r="G101">
+        <v>-4.76879193563284E-2</v>
+      </c>
+      <c r="H101">
+        <v>8.3722257860509295</v>
+      </c>
+      <c r="I101">
+        <v>5.83151788819577E-3</v>
+      </c>
+      <c r="J101">
+        <v>2.0670754725763399E-3</v>
+      </c>
+      <c r="K101">
+        <v>-6.0648110193643003E-2</v>
+      </c>
+      <c r="L101">
+        <v>6.80418969655497E-2</v>
+      </c>
+      <c r="M101">
+        <v>8.0743596251294902E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D102" s="3">
+        <v>-2.8717192777251301E-2</v>
+      </c>
+      <c r="E102">
+        <v>0.15857555163095199</v>
+      </c>
+      <c r="F102">
+        <v>-0.14368599290880801</v>
+      </c>
+      <c r="G102">
+        <v>0.216009937185455</v>
+      </c>
+      <c r="H102">
+        <v>-40.939532841559199</v>
+      </c>
+      <c r="I102">
+        <v>-0.15096770673687299</v>
+      </c>
+      <c r="J102">
+        <v>3.7902724357798602E-2</v>
+      </c>
+      <c r="K102">
+        <v>0.16626394559178501</v>
+      </c>
+      <c r="L102">
+        <v>-0.17899588992757001</v>
+      </c>
+      <c r="M102">
+        <v>0.246838867689474</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D103" s="3">
+        <v>-3.05709339729953E-2</v>
+      </c>
+      <c r="E103">
+        <v>1.9698699887418299E-2</v>
+      </c>
+      <c r="F103">
+        <v>-0.113696456119826</v>
+      </c>
+      <c r="G103">
+        <v>8.08405678334089E-2</v>
+      </c>
+      <c r="H103">
+        <v>-11.9340029950621</v>
+      </c>
+      <c r="I103">
+        <v>4.5590779082522903E-2</v>
+      </c>
+      <c r="J103">
+        <v>-2.7163216004359799E-3</v>
+      </c>
+      <c r="K103">
+        <v>0.162901221926018</v>
+      </c>
+      <c r="L103">
+        <v>-2.86808719396211E-2</v>
+      </c>
+      <c r="M103">
+        <v>0.200372922626153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" t="s">
+        <v>290</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D104" s="3">
+        <v>-3.3296503502923097E-2</v>
+      </c>
+      <c r="E104">
+        <v>2.0299064511817101E-2</v>
+      </c>
+      <c r="F104">
+        <v>-0.15084840947610301</v>
+      </c>
+      <c r="G104">
+        <v>8.6892071517663302E-2</v>
+      </c>
+      <c r="H104">
+        <v>-43.104267327372497</v>
+      </c>
+      <c r="I104">
+        <v>-0.13753935806072501</v>
+      </c>
+      <c r="J104">
+        <v>-5.1446710469031702E-2</v>
+      </c>
+      <c r="K104">
+        <v>0.30127151722964002</v>
+      </c>
+      <c r="L104">
+        <v>0.28567785840059701</v>
+      </c>
+      <c r="M104">
+        <v>0.48250175457953398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" t="s">
+        <v>178</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D105" s="3">
+        <v>-3.7513647590325702E-2</v>
+      </c>
+      <c r="E105">
+        <v>-9.0389817165571498E-2</v>
+      </c>
+      <c r="F105">
+        <v>-0.122681080003833</v>
+      </c>
+      <c r="G105">
+        <v>-1.5362521984920101E-2</v>
+      </c>
+      <c r="H105">
+        <v>-2.0067311313869198</v>
+      </c>
+      <c r="I105">
+        <v>3.6088023652526501E-3</v>
+      </c>
+      <c r="J105">
+        <v>-2.5504287520344601E-2</v>
+      </c>
+      <c r="K105">
+        <v>2.4188256853163299E-2</v>
+      </c>
+      <c r="L105">
+        <v>4.3759985221189603E-2</v>
+      </c>
+      <c r="M105">
+        <v>0.10684275096642799</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" t="s">
+        <v>52</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D106" s="3">
+        <v>-3.8118780973183199E-2</v>
+      </c>
+      <c r="E106">
+        <v>-7.2950448973023302E-2</v>
+      </c>
+      <c r="F106">
+        <v>-0.113301133625954</v>
+      </c>
+      <c r="G106">
+        <v>3.2871129733430199E-3</v>
+      </c>
+      <c r="H106">
+        <v>-8.6342218764025596</v>
+      </c>
+      <c r="I106">
+        <v>1.19330392419058E-2</v>
+      </c>
+      <c r="J106">
+        <v>1.7133435947623898E-2</v>
+      </c>
+      <c r="K106">
+        <v>4.3441576943835498E-2</v>
+      </c>
+      <c r="L106">
+        <v>2.22785864407604E-2</v>
+      </c>
+      <c r="M106">
+        <v>0.10488925406196301</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" t="s">
+        <v>104</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D107" s="3">
+        <v>-4.3644110237395999E-2</v>
+      </c>
+      <c r="E107">
+        <v>-0.170095326500834</v>
+      </c>
+      <c r="F107">
+        <v>-7.7258056813440806E-2</v>
+      </c>
+      <c r="G107">
+        <v>-8.2807106026041605E-2</v>
+      </c>
+      <c r="H107">
+        <v>-0.54338264730559405</v>
+      </c>
+      <c r="I107">
+        <v>9.4742282261990607E-2</v>
+      </c>
+      <c r="J107">
+        <v>8.9564535098102305E-2</v>
+      </c>
+      <c r="K107">
+        <v>-0.63014754980880305</v>
+      </c>
+      <c r="L107">
+        <v>-0.37025161715178201</v>
+      </c>
+      <c r="M107">
+        <v>-0.42537926878605797</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" t="s">
+        <v>38</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D108" s="3">
+        <v>-4.4039367970223502E-2</v>
+      </c>
+      <c r="E108">
+        <v>2.9210813420567399E-2</v>
+      </c>
+      <c r="F108">
+        <v>-0.15412304254542</v>
+      </c>
+      <c r="G108">
+        <v>0.117289549361014</v>
+      </c>
+      <c r="H108">
+        <v>-14.8712489291614</v>
+      </c>
+      <c r="I108">
+        <v>-1.93847128382032E-2</v>
+      </c>
+      <c r="J108">
+        <v>0.16995557924464999</v>
+      </c>
+      <c r="K108">
+        <v>0.82372607895781302</v>
+      </c>
+      <c r="L108">
+        <v>-6.1244796103380801E-2</v>
+      </c>
+      <c r="M108">
+        <v>0.33464019035765202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" t="s">
+        <v>176</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D109" s="3">
+        <v>-4.4142466613467601E-2</v>
+      </c>
+      <c r="E109">
+        <v>-0.17671289619101199</v>
+      </c>
+      <c r="F109">
+        <v>-0.132472750014171</v>
+      </c>
+      <c r="G109">
+        <v>-8.8427962964076706E-2</v>
+      </c>
+      <c r="H109">
+        <v>-3.2135124336335399</v>
+      </c>
+      <c r="I109">
+        <v>-5.5183771687254196E-3</v>
+      </c>
+      <c r="J109">
+        <v>2.7657365010514998E-2</v>
+      </c>
+      <c r="K109">
+        <v>-3.82547469528823E-2</v>
+      </c>
+      <c r="L109">
+        <v>3.8816843210458002E-2</v>
+      </c>
+      <c r="M109">
+        <v>7.4228269755312395E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" t="s">
+        <v>264</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D110" s="3">
+        <v>-4.4943311508407399E-2</v>
+      </c>
+      <c r="E110">
+        <v>-2.3464705892901699E-2</v>
+      </c>
+      <c r="F110">
+        <v>-0.14830209438072101</v>
+      </c>
+      <c r="G110">
+        <v>6.6421917123913196E-2</v>
+      </c>
+      <c r="H110">
+        <v>-29.0183056528079</v>
+      </c>
+      <c r="I110">
+        <v>-0.14026575961250301</v>
+      </c>
+      <c r="J110">
+        <v>-2.71813178097761E-2</v>
+      </c>
+      <c r="K110">
+        <v>0.12856284517590999</v>
+      </c>
+      <c r="L110">
+        <v>0.159552550429339</v>
+      </c>
+      <c r="M110">
+        <v>-2.45370298373917E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D111" s="3">
+        <v>-5.0085464003562702E-2</v>
+      </c>
+      <c r="E111">
+        <v>2.30499734293537E-2</v>
+      </c>
+      <c r="F111">
+        <v>-0.191003673265628</v>
+      </c>
+      <c r="G111">
+        <v>0.123220901436479</v>
+      </c>
+      <c r="H111">
+        <v>-20.1117339424395</v>
+      </c>
+      <c r="I111">
+        <v>4.8866266699279799E-2</v>
+      </c>
+      <c r="J111">
+        <v>4.6296455727991598E-2</v>
+      </c>
+      <c r="K111">
+        <v>-0.163125162857675</v>
+      </c>
+      <c r="L111">
+        <v>-7.6286355935289304E-2</v>
+      </c>
+      <c r="M111">
+        <v>-3.5467176387288003E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D112" s="3">
+        <v>-5.3914976436221701E-2</v>
+      </c>
+      <c r="E112">
+        <v>-2.96681551544671E-2</v>
+      </c>
+      <c r="F112">
+        <v>-0.18892573417533801</v>
+      </c>
+      <c r="G112">
+        <v>7.8161797717976197E-2</v>
+      </c>
+      <c r="H112">
+        <v>-18.251631438467498</v>
+      </c>
+      <c r="I112">
+        <v>3.1848688395937901E-2</v>
+      </c>
+      <c r="J112">
+        <v>1.9182150300693E-2</v>
+      </c>
+      <c r="K112">
+        <v>0.18306797378780401</v>
+      </c>
+      <c r="L112">
+        <v>-4.6795508308004399E-2</v>
+      </c>
+      <c r="M112">
+        <v>0.26943252728047401</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" t="s">
+        <v>36</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D113" s="3">
+        <v>-5.4232514341472901E-2</v>
+      </c>
+      <c r="E113">
+        <v>3.21304993028997E-3</v>
+      </c>
+      <c r="F113">
+        <v>-0.21688108317802601</v>
+      </c>
+      <c r="G113">
+        <v>0.111678078613236</v>
+      </c>
+      <c r="H113">
+        <v>-34.403604606451999</v>
+      </c>
+      <c r="I113">
+        <v>5.9975352827918802E-3</v>
+      </c>
+      <c r="J113">
+        <v>-2.8167682435664299E-2</v>
+      </c>
+      <c r="K113">
+        <v>0.31593902075044999</v>
+      </c>
+      <c r="L113">
+        <v>-0.11326010116219599</v>
+      </c>
+      <c r="M113">
+        <v>0.34409307011983697</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" t="s">
+        <v>164</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D114" s="3">
+        <v>-5.5209141601656901E-2</v>
+      </c>
+      <c r="E114">
+        <v>-0.19120713217405499</v>
+      </c>
+      <c r="F114">
+        <v>-0.15633333077245101</v>
+      </c>
+      <c r="G114">
+        <v>-8.0788848970740998E-2</v>
+      </c>
+      <c r="H114">
+        <v>-8.0869290595841399</v>
+      </c>
+      <c r="I114">
+        <v>-3.79487898805467E-3</v>
+      </c>
+      <c r="J114">
+        <v>-3.3043504991054497E-2</v>
+      </c>
+      <c r="K114">
+        <v>0.15679090429158099</v>
+      </c>
+      <c r="L114">
+        <v>6.6333755588457097E-2</v>
+      </c>
+      <c r="M114">
+        <v>0.185141459876869</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" t="s">
+        <v>284</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D115" s="3">
+        <v>-5.6227619766841798E-2</v>
+      </c>
+      <c r="E115">
+        <v>-0.115570419442881</v>
+      </c>
+      <c r="F115">
+        <v>-0.19412696476283101</v>
+      </c>
+      <c r="G115">
+        <v>-3.1151799091974799E-3</v>
+      </c>
+      <c r="H115">
+        <v>-1.24741221729053</v>
+      </c>
+      <c r="I115">
+        <v>0.110498405966256</v>
+      </c>
+      <c r="J115">
+        <v>-0.29207947655821698</v>
+      </c>
+      <c r="K115">
+        <v>0.33119146722700299</v>
+      </c>
+      <c r="L115">
+        <v>-0.11472089904487399</v>
+      </c>
+      <c r="M115">
+        <v>-9.1014761872607097E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D116" s="3">
+        <v>-5.8378642630658499E-2</v>
+      </c>
+      <c r="E116">
+        <v>-0.196552483976838</v>
+      </c>
+      <c r="F116">
+        <v>-0.15473933855533301</v>
+      </c>
+      <c r="G116">
+        <v>-7.9795198715521001E-2</v>
+      </c>
+      <c r="H116">
+        <v>-1.52772529143872</v>
+      </c>
+      <c r="I116">
+        <v>2.04012346979414E-2</v>
+      </c>
+      <c r="J116">
+        <v>-4.4229527615977399E-2</v>
+      </c>
+      <c r="K116">
+        <v>-6.7178380983012903E-2</v>
+      </c>
+      <c r="L116">
+        <v>3.8478908169988398E-2</v>
+      </c>
+      <c r="M116">
+        <v>7.9521883379941094E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" t="s">
+        <v>148</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D117" s="3">
+        <v>-6.2257395114014097E-2</v>
+      </c>
+      <c r="E117">
+        <v>-0.26137117106792401</v>
+      </c>
+      <c r="F117">
+        <v>-0.16138715517586699</v>
+      </c>
+      <c r="G117">
+        <v>-0.13685638083989601</v>
+      </c>
+      <c r="H117">
+        <v>0.37563379518499401</v>
+      </c>
+      <c r="I117">
+        <v>-1.4562112715684699E-2</v>
+      </c>
+      <c r="J117">
+        <v>-1.0699804929298401E-2</v>
+      </c>
+      <c r="K117">
+        <v>0.109984230514026</v>
+      </c>
+      <c r="L117">
+        <v>6.3686654232741197E-2</v>
+      </c>
+      <c r="M117">
+        <v>0.227334306591018</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" t="s">
+        <v>174</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D118" s="3">
+        <v>-6.6339852991035606E-2</v>
+      </c>
+      <c r="E118">
+        <v>-0.243335691027766</v>
+      </c>
+      <c r="F118">
+        <v>-0.191606320894258</v>
+      </c>
+      <c r="G118">
+        <v>-0.110655985045695</v>
+      </c>
+      <c r="H118">
+        <v>-0.275574895729777</v>
+      </c>
+      <c r="I118">
+        <v>-1.9602257092932601E-2</v>
+      </c>
+      <c r="J118">
+        <v>-3.1201769863281801E-2</v>
+      </c>
+      <c r="K118">
+        <v>0.13736799676063599</v>
+      </c>
+      <c r="L118">
+        <v>9.0655735427464704E-2</v>
+      </c>
+      <c r="M118">
+        <v>0.278823857458321</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" t="s">
+        <v>172</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D119" s="3">
+        <v>-6.6935892090386903E-2</v>
+      </c>
+      <c r="E119">
+        <v>-0.21624480717897601</v>
+      </c>
+      <c r="F119">
+        <v>-0.17028172621706</v>
+      </c>
+      <c r="G119">
+        <v>-8.2373022998202303E-2</v>
+      </c>
+      <c r="H119">
+        <v>-3.6414771138094801</v>
+      </c>
+      <c r="I119">
+        <v>3.1591874721577297E-2</v>
+      </c>
+      <c r="J119">
+        <v>-2.7485568583045999E-2</v>
+      </c>
+      <c r="K119">
+        <v>-2.76990324386992E-2</v>
+      </c>
+      <c r="L119">
+        <v>5.8705971297222298E-2</v>
+      </c>
+      <c r="M119">
+        <v>6.7425095952074507E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" t="s">
+        <v>22</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D120" s="3">
+        <v>-6.7122501152312997E-2</v>
+      </c>
+      <c r="E120">
+        <v>-1.0056496435760001E-2</v>
+      </c>
+      <c r="F120">
+        <v>-0.16514947846797701</v>
+      </c>
+      <c r="G120">
+        <v>0.124188505868866</v>
+      </c>
+      <c r="H120">
+        <v>17.3357034812602</v>
+      </c>
+      <c r="I120">
+        <v>-0.13469262575194599</v>
+      </c>
+      <c r="J120">
+        <v>-0.21324288009812301</v>
+      </c>
+      <c r="K120">
+        <v>-0.15758509396001999</v>
+      </c>
+      <c r="L120">
+        <v>-0.25023992167350401</v>
+      </c>
+      <c r="M120">
+        <v>-2.0653447439518701E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" t="s">
+        <v>150</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D121" s="3">
+        <v>-6.7281041149089005E-2</v>
+      </c>
+      <c r="E121">
+        <v>-0.17394962920861001</v>
+      </c>
+      <c r="F121">
+        <v>-0.293090491602573</v>
+      </c>
+      <c r="G121">
+        <v>-3.9387546910431698E-2</v>
+      </c>
+      <c r="H121">
+        <v>2.3462825742795901</v>
+      </c>
+      <c r="I121">
+        <v>5.6641387388367298E-2</v>
+      </c>
+      <c r="J121">
+        <v>-0.173829387206099</v>
+      </c>
+      <c r="K121">
+        <v>-0.192406693878997</v>
+      </c>
+      <c r="L121">
+        <v>-0.123132015242398</v>
+      </c>
+      <c r="M121">
+        <v>9.0814613476490696E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" t="s">
+        <v>42</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D122" s="3">
+        <v>-6.7551521813576598E-2</v>
+      </c>
+      <c r="E122">
+        <v>-3.1147658678600299E-2</v>
+      </c>
+      <c r="F122">
+        <v>-0.21500709295568801</v>
+      </c>
+      <c r="G122">
+        <v>0.103955384948553</v>
+      </c>
+      <c r="H122">
+        <v>8.3608743206084508</v>
+      </c>
+      <c r="I122">
+        <v>9.4184240450961701E-2</v>
+      </c>
+      <c r="J122">
+        <v>7.6547524469501693E-2</v>
+      </c>
+      <c r="K122">
+        <v>-9.7803400669816604E-2</v>
+      </c>
+      <c r="L122">
+        <v>-0.15546815985559301</v>
+      </c>
+      <c r="M122">
+        <v>9.6948478826780801E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" t="s">
+        <v>138</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D123" s="3">
+        <v>-6.7900341789712104E-2</v>
+      </c>
+      <c r="E123">
+        <v>-9.9111187180755803E-2</v>
+      </c>
+      <c r="F123">
+        <v>-0.132678321667731</v>
+      </c>
+      <c r="G123">
+        <v>3.6689496398668399E-2</v>
+      </c>
+      <c r="H123">
+        <v>-9.4017454532557192</v>
+      </c>
+      <c r="I123">
+        <v>3.0861174610490399E-3</v>
+      </c>
+      <c r="J123">
+        <v>6.1430218056929699E-2</v>
+      </c>
+      <c r="K123">
+        <v>-0.117090340804352</v>
+      </c>
+      <c r="L123">
+        <v>4.0611386969014299E-2</v>
+      </c>
+      <c r="M123">
+        <v>0.13557019519411201</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D124" s="3">
+        <v>-6.8821645498137796E-2</v>
+      </c>
+      <c r="E124">
+        <v>-0.266827469320917</v>
+      </c>
+      <c r="F124">
+        <v>-0.191318770485193</v>
+      </c>
+      <c r="G124">
+        <v>-0.12918417832464099</v>
+      </c>
+      <c r="H124">
+        <v>-4.9362060270834203</v>
+      </c>
+      <c r="I124">
+        <v>-1.35119364031282E-2</v>
+      </c>
+      <c r="J124">
+        <v>2.0644029234828502E-2</v>
+      </c>
+      <c r="K124">
+        <v>0.121608547205023</v>
+      </c>
+      <c r="L124">
+        <v>9.3959168553520697E-2</v>
+      </c>
+      <c r="M124">
+        <v>0.17558423840888199</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" t="s">
+        <v>282</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D125" s="3">
+        <v>-7.3920257698815703E-2</v>
+      </c>
+      <c r="E125">
+        <v>-0.16572217721235599</v>
+      </c>
+      <c r="F125">
+        <v>-0.16002186469063301</v>
+      </c>
+      <c r="G125">
+        <v>-1.7881661814724701E-2</v>
+      </c>
+      <c r="H125">
+        <v>-1.7117072996773799</v>
+      </c>
+      <c r="I125">
+        <v>-0.12462858749295599</v>
+      </c>
+      <c r="J125">
+        <v>-0.14762646980228</v>
+      </c>
+      <c r="K125">
+        <v>-0.29055138093945498</v>
+      </c>
+      <c r="L125">
+        <v>-0.40058281433950099</v>
+      </c>
+      <c r="M125">
+        <v>0.147787341689994</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" t="s">
+        <v>146</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D126" s="3">
+        <v>-7.4029301016979798E-2</v>
+      </c>
+      <c r="E126">
+        <v>-0.297096207539506</v>
+      </c>
+      <c r="F126">
+        <v>-0.161606218197033</v>
+      </c>
+      <c r="G126">
+        <v>-0.14903760550554701</v>
+      </c>
+      <c r="H126">
+        <v>-3.11810859242253</v>
+      </c>
+      <c r="I126">
+        <v>-0.103224284408596</v>
+      </c>
+      <c r="J126">
+        <v>-9.9604369901507103E-2</v>
+      </c>
+      <c r="K126">
+        <v>1.0462270288947599E-2</v>
+      </c>
+      <c r="L126">
+        <v>0.117318598185313</v>
+      </c>
+      <c r="M126">
+        <v>1.55608856216512E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" t="s">
+        <v>32</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D127" s="3">
+        <v>-7.6737318801661805E-2</v>
+      </c>
+      <c r="E127">
+        <v>-2.65475077751284E-2</v>
+      </c>
+      <c r="F127">
+        <v>-0.28372582740429098</v>
+      </c>
+      <c r="G127">
+        <v>0.12692712982819501</v>
+      </c>
+      <c r="H127">
+        <v>-36.331302726028397</v>
+      </c>
+      <c r="I127">
+        <v>8.5330744683790094E-2</v>
+      </c>
+      <c r="J127">
+        <v>-0.232476409249986</v>
+      </c>
+      <c r="K127">
+        <v>0.27659062572087301</v>
+      </c>
+      <c r="L127">
+        <v>-7.1867780509267704E-2</v>
+      </c>
+      <c r="M127">
+        <v>0.55350207600433898</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" t="s">
+        <v>160</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D128" s="3">
+        <v>-7.7503366006676594E-2</v>
+      </c>
+      <c r="E128">
+        <v>-0.28540366490167302</v>
+      </c>
+      <c r="F128">
+        <v>-0.26122519320487902</v>
+      </c>
+      <c r="G128">
+        <v>-0.13039693288831999</v>
+      </c>
+      <c r="H128">
+        <v>15.0662634400891</v>
+      </c>
+      <c r="I128">
+        <v>-0.18856282583266101</v>
+      </c>
+      <c r="J128">
+        <v>0.18881639708582601</v>
+      </c>
+      <c r="K128">
+        <v>0.39527916202462499</v>
+      </c>
+      <c r="L128">
+        <v>8.4246314437016495E-2</v>
+      </c>
+      <c r="M128">
+        <v>0.202862047211088</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" t="s">
+        <v>34</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D129" s="3">
+        <v>-7.7605471894151901E-2</v>
+      </c>
+      <c r="E129">
+        <v>-9.2531420205620094E-2</v>
+      </c>
+      <c r="F129">
+        <v>-0.179571237107576</v>
+      </c>
+      <c r="G129">
+        <v>6.2679523582683694E-2</v>
+      </c>
+      <c r="H129">
+        <v>-27.741207048277701</v>
+      </c>
+      <c r="I129">
+        <v>8.8756732527684595E-2</v>
+      </c>
+      <c r="J129">
+        <v>-0.107569356140314</v>
+      </c>
+      <c r="K129">
+        <v>0.26146018622526901</v>
+      </c>
+      <c r="L129">
+        <v>-4.90430895603544E-2</v>
+      </c>
+      <c r="M129">
+        <v>0.35349436393755201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" t="s">
+        <v>120</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D130" s="3">
+        <v>-7.7858523461531395E-2</v>
+      </c>
+      <c r="E130">
+        <v>-0.21426519514311701</v>
+      </c>
+      <c r="F130">
+        <v>-0.22818751790276601</v>
+      </c>
+      <c r="G130">
+        <v>-5.8548148220053803E-2</v>
+      </c>
+      <c r="H130">
+        <v>2.6780023398956101</v>
+      </c>
+      <c r="I130">
+        <v>-0.13365343937636101</v>
+      </c>
+      <c r="J130">
+        <v>-6.4437125706883897E-2</v>
+      </c>
+      <c r="K130">
+        <v>-2.0606181224477101E-2</v>
+      </c>
+      <c r="L130">
+        <v>0.149798821045246</v>
+      </c>
+      <c r="M130">
+        <v>0.30331485051533602</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" t="s">
+        <v>180</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D131" s="3">
+        <v>-7.8284667379544898E-2</v>
+      </c>
+      <c r="E131">
+        <v>-0.19103933488795999</v>
+      </c>
+      <c r="F131">
+        <v>-0.22453898272619899</v>
+      </c>
+      <c r="G131">
+        <v>-3.4470000128870297E-2</v>
+      </c>
+      <c r="H131">
+        <v>-7.6894034301940204</v>
+      </c>
+      <c r="I131">
+        <v>8.0219914733301503E-3</v>
+      </c>
+      <c r="J131">
+        <v>-4.1552057018724997E-2</v>
+      </c>
+      <c r="K131">
+        <v>-4.9749475875700402E-2</v>
+      </c>
+      <c r="L131">
+        <v>2.8220746106253101E-2</v>
+      </c>
+      <c r="M131">
+        <v>0.111706035755572</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" t="s">
+        <v>28</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D132" s="3">
+        <v>-7.9199260868045906E-2</v>
+      </c>
+      <c r="E132">
+        <v>2.6087420232776101E-2</v>
+      </c>
+      <c r="F132">
+        <v>-0.35890621192876299</v>
+      </c>
+      <c r="G132">
+        <v>0.184485941968868</v>
+      </c>
+      <c r="H132">
+        <v>-20.113442412274399</v>
+      </c>
+      <c r="I132">
+        <v>5.9801456323799899E-2</v>
+      </c>
+      <c r="J132">
+        <v>8.0893187523782606E-2</v>
+      </c>
+      <c r="K132">
+        <v>0.19602937225529199</v>
+      </c>
+      <c r="L132">
+        <v>0.185584185728808</v>
+      </c>
+      <c r="M132">
+        <v>0.39211883648615298</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D133" s="3">
+        <v>-8.1255367661199604E-2</v>
+      </c>
+      <c r="E133">
+        <v>-0.24504243784041099</v>
+      </c>
+      <c r="F133">
+        <v>-0.26661788432785899</v>
+      </c>
+      <c r="G133">
+        <v>-8.2531702518011299E-2</v>
+      </c>
+      <c r="H133">
+        <v>-26.6798041151512</v>
+      </c>
+      <c r="I133">
+        <v>-7.8514654940099404E-2</v>
+      </c>
+      <c r="J133">
+        <v>0.26420817931597002</v>
+      </c>
+      <c r="K133">
+        <v>0.17899157716535799</v>
+      </c>
+      <c r="L133">
+        <v>0.17262301018112</v>
+      </c>
+      <c r="M133">
+        <v>0.13711761027145</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" t="s">
+        <v>144</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D134" s="3">
+        <v>-8.7709549518761407E-2</v>
+      </c>
+      <c r="E134">
+        <v>-0.28548619991388802</v>
+      </c>
+      <c r="F134">
+        <v>-0.24945694943880301</v>
+      </c>
+      <c r="G134">
+        <v>-0.110067100876365</v>
+      </c>
+      <c r="H134">
+        <v>-9.5132735806737898</v>
+      </c>
+      <c r="I134">
+        <v>-2.4246913344265202E-2</v>
+      </c>
+      <c r="J134">
+        <v>1.9168528647606101E-2</v>
+      </c>
+      <c r="K134">
+        <v>0.100683898215412</v>
+      </c>
+      <c r="L134">
+        <v>9.2663856128888694E-2</v>
+      </c>
+      <c r="M134">
+        <v>0.181589624454564</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" t="s">
+        <v>158</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D135" s="3">
+        <v>-9.0127911778698402E-2</v>
+      </c>
+      <c r="E135">
+        <v>-0.4639937000837</v>
+      </c>
+      <c r="F135">
+        <v>-0.23190412925616399</v>
+      </c>
+      <c r="G135">
+        <v>-0.283737876526303</v>
+      </c>
+      <c r="H135">
+        <v>7.9974946554511499</v>
+      </c>
+      <c r="I135">
+        <v>-1.2112233831308199E-2</v>
+      </c>
+      <c r="J135">
+        <v>-2.9973810778748101E-2</v>
+      </c>
+      <c r="K135">
+        <v>-3.8115132498080503E-2</v>
+      </c>
+      <c r="L135">
+        <v>2.50525095067658E-2</v>
+      </c>
+      <c r="M135">
+        <v>0.231196338333576</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" t="s">
+        <v>280</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D136" s="3">
+        <v>-9.4158258227456396E-2</v>
+      </c>
+      <c r="E136">
+        <v>-0.32923228609560901</v>
+      </c>
+      <c r="F136">
+        <v>-0.34566061188910602</v>
+      </c>
+      <c r="G136">
+        <v>-0.14091576964069599</v>
+      </c>
+      <c r="H136">
+        <v>-22.985833855467099</v>
+      </c>
+      <c r="I136">
+        <v>5.5469152115475401E-2</v>
+      </c>
+      <c r="J136">
+        <v>-6.5795552376335303E-2</v>
+      </c>
+      <c r="K136">
+        <v>0.48598835301561499</v>
+      </c>
+      <c r="L136">
+        <v>0.49920107230115801</v>
+      </c>
+      <c r="M136">
+        <v>0.217866651666415</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D137" s="3">
+        <v>-9.7409341894891893E-2</v>
+      </c>
+      <c r="E137">
+        <v>-0.24918648244097</v>
+      </c>
+      <c r="F137">
+        <v>-0.227930352835297</v>
+      </c>
+      <c r="G137">
+        <v>-5.4367798651185899E-2</v>
+      </c>
+      <c r="H137">
+        <v>-11.426321689331299</v>
+      </c>
+      <c r="I137">
+        <v>9.0925825912615402E-2</v>
+      </c>
+      <c r="J137">
+        <v>-0.142788436955815</v>
+      </c>
+      <c r="K137">
+        <v>0.116984882243305</v>
+      </c>
+      <c r="L137">
+        <v>-3.1520168593665E-2</v>
+      </c>
+      <c r="M137">
+        <v>7.9845041005725995E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" t="s">
+        <v>154</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D138" s="3">
+        <v>-9.84077070272521E-2</v>
+      </c>
+      <c r="E138">
+        <v>-0.22300160941882299</v>
+      </c>
+      <c r="F138">
+        <v>-0.38589971239806797</v>
+      </c>
+      <c r="G138">
+        <v>-2.61861953643182E-2</v>
+      </c>
+      <c r="H138">
+        <v>-22.106624382371901</v>
+      </c>
+      <c r="I138">
+        <v>5.6766449494186997E-3</v>
+      </c>
+      <c r="J138">
+        <v>4.5485888075908497E-2</v>
+      </c>
+      <c r="K138">
+        <v>0.193015203020558</v>
+      </c>
+      <c r="L138">
+        <v>0.39172854019118297</v>
+      </c>
+      <c r="M138">
+        <v>0.46046850800010097</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" t="s">
+        <v>170</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D139" s="3">
+        <v>-0.110259502244445</v>
+      </c>
+      <c r="E139">
+        <v>-0.30348148545201398</v>
+      </c>
+      <c r="F139">
+        <v>-0.31915552731446301</v>
+      </c>
+      <c r="G139">
+        <v>-8.2962480963123794E-2</v>
+      </c>
+      <c r="H139">
+        <v>-9.1274739168512902</v>
+      </c>
+      <c r="I139">
+        <v>1.23621167798867E-2</v>
+      </c>
+      <c r="J139">
+        <v>6.5117875094811206E-2</v>
+      </c>
+      <c r="K139">
+        <v>-0.113677230529344</v>
+      </c>
+      <c r="L139">
+        <v>0.226515149028717</v>
+      </c>
+      <c r="M139">
+        <v>0.152833802473721</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D140" s="3">
+        <v>-0.112047624633089</v>
+      </c>
+      <c r="E140">
+        <v>-9.8798993788957498E-2</v>
+      </c>
+      <c r="F140">
+        <v>-0.42850991232833302</v>
+      </c>
+      <c r="G140">
+        <v>0.12529625547722101</v>
+      </c>
+      <c r="H140">
+        <v>-11.7803758782395</v>
+      </c>
+      <c r="I140">
+        <v>6.7432561721219295E-2</v>
+      </c>
+      <c r="J140">
+        <v>-0.121897583381993</v>
+      </c>
+      <c r="K140">
+        <v>-0.33319799844123099</v>
+      </c>
+      <c r="L140">
+        <v>0.13253811509372401</v>
+      </c>
+      <c r="M140">
+        <v>-0.23970785698406799</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" t="s">
+        <v>130</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D141" s="3">
+        <v>-0.114809512605495</v>
+      </c>
+      <c r="E141">
+        <v>-0.46589006114166998</v>
+      </c>
+      <c r="F141">
+        <v>-0.24819108418392499</v>
+      </c>
+      <c r="G141">
+        <v>-0.23627103593068</v>
+      </c>
+      <c r="H141">
+        <v>-23.5597565034113</v>
+      </c>
+      <c r="I141">
+        <v>6.2600666183004004E-3</v>
+      </c>
+      <c r="J141">
+        <v>-5.6690851356003602E-2</v>
+      </c>
+      <c r="K141">
+        <v>0.42521651950789002</v>
+      </c>
+      <c r="L141">
+        <v>9.79994679985066E-3</v>
+      </c>
+      <c r="M141">
+        <v>0.30777862653587401</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" t="s">
+        <v>168</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D142" s="3">
+        <v>-0.116847632687263</v>
+      </c>
+      <c r="E142">
+        <v>-0.36228277506613199</v>
+      </c>
+      <c r="F142">
+        <v>-0.324391583075335</v>
+      </c>
+      <c r="G142">
+        <v>-0.12858750969160701</v>
+      </c>
+      <c r="H142">
+        <v>-17.7727829264206</v>
+      </c>
+      <c r="I142">
+        <v>-5.6042755273953198E-3</v>
+      </c>
+      <c r="J142">
+        <v>3.9165759424421999E-2</v>
+      </c>
+      <c r="K142">
+        <v>4.6765998879570302E-4</v>
+      </c>
+      <c r="L142">
+        <v>0.109260347643265</v>
+      </c>
+      <c r="M142">
+        <v>0.128133266529004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" t="s">
+        <v>182</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D143" s="3">
+        <v>-0.11972026902701</v>
+      </c>
+      <c r="E143">
+        <v>-0.38483917435776299</v>
+      </c>
+      <c r="F143">
+        <v>-0.38055620811622398</v>
+      </c>
+      <c r="G143">
+        <v>-0.145398636303742</v>
+      </c>
+      <c r="H143">
+        <v>-9.6449959303842405</v>
+      </c>
+      <c r="I143">
+        <v>6.3804622431402405E-2</v>
+      </c>
+      <c r="J143">
+        <v>0.104370974039385</v>
+      </c>
+      <c r="K143">
+        <v>-0.27060124568255001</v>
+      </c>
+      <c r="L143">
+        <v>-6.0270346051518001E-2</v>
+      </c>
+      <c r="M143">
+        <v>2.9855363811155501E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" t="s">
+        <v>162</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D144" s="3">
+        <v>-0.126758890955217</v>
+      </c>
+      <c r="E144">
+        <v>-0.31931871230367198</v>
+      </c>
+      <c r="F144">
+        <v>-0.30585054827695302</v>
+      </c>
+      <c r="G144">
+        <v>-6.5800930393239199E-2</v>
+      </c>
+      <c r="H144">
+        <v>-38.867796180615599</v>
+      </c>
+      <c r="I144">
+        <v>-0.11268343162647</v>
+      </c>
+      <c r="J144">
+        <v>2.4463672044267502E-2</v>
+      </c>
+      <c r="K144">
+        <v>0.14006364817762501</v>
+      </c>
+      <c r="L144">
+        <v>1.72269438856163E-3</v>
+      </c>
+      <c r="M144">
+        <v>0.23907252299891199</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" t="s">
+        <v>166</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D145" s="3">
+        <v>-0.12726330094810701</v>
+      </c>
+      <c r="E145">
+        <v>-0.32935578216914801</v>
+      </c>
+      <c r="F145">
+        <v>-0.31370408270483502</v>
+      </c>
+      <c r="G145">
+        <v>-7.4829180272933796E-2</v>
+      </c>
+      <c r="H145">
+        <v>-19.931573749830999</v>
+      </c>
+      <c r="I145">
+        <v>7.5193384970717106E-2</v>
+      </c>
+      <c r="J145">
+        <v>-2.1518113782471499E-2</v>
+      </c>
+      <c r="K145">
+        <v>-0.12510445502020701</v>
+      </c>
+      <c r="L145">
+        <v>4.6525374275161499E-2</v>
+      </c>
+      <c r="M145">
+        <v>-8.5780435185290795E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" t="s">
+        <v>134</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D146" s="3">
+        <v>-0.13145355687246801</v>
+      </c>
+      <c r="E146">
+        <v>-0.253555694959821</v>
+      </c>
+      <c r="F146">
+        <v>-0.389911037900671</v>
+      </c>
+      <c r="G146">
+        <v>9.3514187851140105E-3</v>
+      </c>
+      <c r="H146">
+        <v>-21.9954276353529</v>
+      </c>
+      <c r="I146">
+        <v>-0.19794680632605099</v>
+      </c>
+      <c r="J146">
+        <v>9.0823919571267897E-2</v>
+      </c>
+      <c r="K146">
+        <v>0.51842127401937899</v>
+      </c>
+      <c r="L146">
+        <v>4.9512117816177897E-2</v>
+      </c>
+      <c r="M146">
+        <v>0.81659754587197697</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" t="s">
+        <v>122</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D147" s="3">
+        <v>-0.16724982279908601</v>
+      </c>
+      <c r="E147">
+        <v>-0.47681588644072698</v>
+      </c>
+      <c r="F147">
+        <v>-0.61664405109622</v>
+      </c>
+      <c r="G147">
+        <v>-0.14231624084255501</v>
+      </c>
+      <c r="H147">
+        <v>-15.273011220993499</v>
+      </c>
+      <c r="I147">
+        <v>0.134723803018861</v>
+      </c>
+      <c r="J147">
+        <v>-0.14416894901803201</v>
+      </c>
+      <c r="K147">
+        <v>4.4918885002408404E-3</v>
+      </c>
+      <c r="L147">
+        <v>0.210895349584828</v>
+      </c>
+      <c r="M147">
+        <v>-5.3815131369613099E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" t="s">
+        <v>136</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D148" s="3">
+        <v>-0.17646169446355101</v>
+      </c>
+      <c r="E148">
+        <v>-0.71881939692826802</v>
+      </c>
+      <c r="F148">
+        <v>-0.42924965222796002</v>
+      </c>
+      <c r="G148">
+        <v>-0.36589600800116601</v>
+      </c>
+      <c r="H148">
+        <v>-11.3706633092518</v>
+      </c>
+      <c r="I148">
+        <v>8.7536223226557297E-2</v>
+      </c>
+      <c r="J148">
+        <v>-0.14561361791955399</v>
+      </c>
+      <c r="K148">
+        <v>0.19281926143345399</v>
+      </c>
+      <c r="L148">
+        <v>1.8187601994711599E-2</v>
+      </c>
+      <c r="M148">
+        <v>0.47446426285925197</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" t="s">
+        <v>132</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D149" s="3">
+        <v>-0.180110557752612</v>
+      </c>
+      <c r="E149">
+        <v>-0.49532699780294398</v>
+      </c>
+      <c r="F149">
+        <v>-0.50904069558061604</v>
+      </c>
+      <c r="G149">
+        <v>-0.135105882297719</v>
+      </c>
+      <c r="H149">
+        <v>-20.1147214379193</v>
+      </c>
+      <c r="I149">
+        <v>-1.64446427978081E-2</v>
+      </c>
+      <c r="J149">
+        <v>0.14977214070023601</v>
+      </c>
+      <c r="K149">
+        <v>-0.17228247360434101</v>
+      </c>
+      <c r="L149">
+        <v>0.39376772316975001</v>
+      </c>
+      <c r="M149">
+        <v>0.24627158095143301</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:M149">
+    <sortCondition descending="1" ref="D2:D149"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A71" sqref="A71:A107"/>
     </sheetView>
   </sheetViews>
@@ -13318,7 +19475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M122"/>
   <sheetViews>
@@ -18347,13 +24504,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M376"/>
+      <selection activeCell="B1" sqref="B1:M149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18399,7 +24556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -18440,7 +24597,7 @@
         <v>-0.53110052720092604</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -18481,7 +24638,7 @@
         <v>-0.23970785698406799</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -18522,7 +24679,7 @@
         <v>-4.1561115972013903E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -18563,7 +24720,7 @@
         <v>0.15826957351861201</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -18604,7 +24761,7 @@
         <v>0.32297151776192801</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -18645,7 +24802,7 @@
         <v>-2.0653447439518701E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -18686,7 +24843,7 @@
         <v>-0.40294486029582699</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -18727,7 +24884,7 @@
         <v>0.246838867689474</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -18768,7 +24925,7 @@
         <v>0.39211883648615298</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -18809,7 +24966,7 @@
         <v>-3.5467176387288003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -18850,7 +25007,7 @@
         <v>0.55350207600433898</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -18891,7 +25048,7 @@
         <v>0.35349436393755201</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -18932,7 +25089,7 @@
         <v>0.34409307011983697</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -18973,7 +25130,7 @@
         <v>0.33464019035765202</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -19014,7 +25171,7 @@
         <v>0.26943252728047401</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -19055,7 +25212,7 @@
         <v>9.6948478826780801E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -19096,7 +25253,7 @@
         <v>0.200372922626153</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -19137,7 +25294,7 @@
         <v>2.1317474678760901E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -19178,7 +25335,7 @@
         <v>-2.1775886485711E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -19219,7 +25376,7 @@
         <v>3.49303803458694E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -19260,7 +25417,7 @@
         <v>0.10488925406196301</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -19301,7 +25458,7 @@
         <v>6.0264493957219497E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -19342,7 +25499,7 @@
         <v>2.5531262439220498E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -19383,7 +25540,7 @@
         <v>1.8055429207325498E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -19424,7 +25581,7 @@
         <v>6.6504916695429905E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -19465,7 +25622,7 @@
         <v>-6.7558785000227202E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -19506,7 +25663,7 @@
         <v>-0.209461722223311</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -19547,7 +25704,7 @@
         <v>-0.26446455785587503</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -19588,7 +25745,7 @@
         <v>-0.220648497361529</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -19629,7 +25786,7 @@
         <v>-0.200140049431833</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -19670,7 +25827,7 @@
         <v>-0.27546737917333503</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -19711,7 +25868,7 @@
         <v>-0.22801930275194299</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -19752,7 +25909,7 @@
         <v>-0.22775726705250701</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -19793,7 +25950,7 @@
         <v>-0.20776128314151099</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -19834,7 +25991,7 @@
         <v>-0.284424568876885</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -19875,7 +26032,7 @@
         <v>-0.142861364257691</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -19916,7 +26073,7 @@
         <v>-0.25548757143758299</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -19957,7 +26114,7 @@
         <v>-0.21231060722980699</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -19998,7 +26155,7 @@
         <v>-0.22573779123519599</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -20039,7 +26196,7 @@
         <v>0.13641374398814901</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -20080,7 +26237,7 @@
         <v>-0.31497524384172398</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -20121,7 +26278,7 @@
         <v>-5.9786847741013199E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -20162,7 +26319,7 @@
         <v>-6.3157994132715195E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -20203,7 +26360,7 @@
         <v>-0.626922831205877</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -20244,7 +26401,7 @@
         <v>-0.31855895911659798</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -20285,7 +26442,7 @@
         <v>2.0308236268195501E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -20326,7 +26483,7 @@
         <v>-0.42537926878605797</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -20367,7 +26524,7 @@
         <v>-0.284160014782399</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -20408,7 +26565,7 @@
         <v>-0.161916291909491</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -20449,7 +26606,7 @@
         <v>-0.44690957880850701</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -20490,7 +26647,7 @@
         <v>-0.38367235990459903</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1">
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -20531,7 +26688,7 @@
         <v>-0.26585013967911902</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -20572,7 +26729,7 @@
         <v>-0.15678916083011099</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -20613,7 +26770,7 @@
         <v>0.35219103507642902</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>119</v>
       </c>
@@ -20654,7 +26811,7 @@
         <v>0.30331485051533602</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -20695,7 +26852,7 @@
         <v>-5.3815131369613099E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1">
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -20736,7 +26893,7 @@
         <v>7.9521883379941094E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1">
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -20777,7 +26934,7 @@
         <v>0.135307198528412</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1">
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -20818,7 +26975,7 @@
         <v>-0.170853066294122</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1">
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>129</v>
       </c>
@@ -20859,7 +27016,7 @@
         <v>0.30777862653587401</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1">
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -20900,7 +27057,7 @@
         <v>0.24627158095143301</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1">
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>133</v>
       </c>
@@ -20941,7 +27098,7 @@
         <v>0.81659754587197697</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1">
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>135</v>
       </c>
@@ -20982,7 +27139,7 @@
         <v>0.47446426285925197</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1">
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -21023,7 +27180,7 @@
         <v>0.13557019519411201</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1">
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -21064,7 +27221,7 @@
         <v>7.9845041005725995E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1">
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -21105,7 +27262,7 @@
         <v>0.13711761027145</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1">
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>143</v>
       </c>
@@ -21146,7 +27303,7 @@
         <v>0.181589624454564</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1">
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>145</v>
       </c>
@@ -21187,7 +27344,7 @@
         <v>1.55608856216512E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1">
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>147</v>
       </c>
@@ -21228,7 +27385,7 @@
         <v>0.227334306591018</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1">
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -21269,7 +27426,7 @@
         <v>9.0814613476490696E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1">
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>151</v>
       </c>
@@ -21310,7 +27467,7 @@
         <v>0.17558423840888199</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1">
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -21351,7 +27508,7 @@
         <v>0.46046850800010097</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1">
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -21392,7 +27549,7 @@
         <v>0.5513601001324</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1">
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -21433,7 +27590,7 @@
         <v>0.231196338333576</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1">
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -21474,7 +27631,7 @@
         <v>0.202862047211088</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1">
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>161</v>
       </c>
@@ -21515,7 +27672,7 @@
         <v>0.23907252299891199</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1">
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
         <v>163</v>
       </c>
@@ -21556,7 +27713,7 @@
         <v>0.185141459876869</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1">
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>165</v>
       </c>
@@ -21597,7 +27754,7 @@
         <v>-8.5780435185290795E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1">
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -21638,7 +27795,7 @@
         <v>0.128133266529004</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1">
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>169</v>
       </c>
@@ -21679,7 +27836,7 @@
         <v>0.152833802473721</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1">
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>171</v>
       </c>
@@ -21720,7 +27877,7 @@
         <v>6.7425095952074507E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1">
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -21761,7 +27918,7 @@
         <v>0.278823857458321</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1">
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>175</v>
       </c>
@@ -21802,7 +27959,7 @@
         <v>7.4228269755312395E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1">
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -21843,7 +28000,7 @@
         <v>0.10684275096642799</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1">
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>179</v>
       </c>
@@ -21884,7 +28041,7 @@
         <v>0.111706035755572</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1">
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -21925,7 +28082,7 @@
         <v>2.9855363811155501E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1">
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>183</v>
       </c>
@@ -21966,7 +28123,7 @@
         <v>-1.4329756271671901E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1">
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>185</v>
       </c>
@@ -22007,7 +28164,7 @@
         <v>1.03292834273895E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1">
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -22048,7 +28205,7 @@
         <v>-1.5948399841987499E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1">
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>189</v>
       </c>
@@ -22089,7 +28246,7 @@
         <v>2.79418891706983E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1">
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>191</v>
       </c>
@@ -22130,7 +28287,7 @@
         <v>6.9841699896339204E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1">
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>193</v>
       </c>
@@ -22171,7 +28328,7 @@
         <v>8.3069203461939509E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1">
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>195</v>
       </c>
@@ -22212,7 +28369,7 @@
         <v>4.6171960241937898E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1">
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>197</v>
       </c>
@@ -22253,7 +28410,7 @@
         <v>8.4357144097437595E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1">
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>199</v>
       </c>
@@ -22294,7 +28451,7 @@
         <v>8.0743596251294902E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1">
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>201</v>
       </c>
@@ -22335,7 +28492,7 @@
         <v>5.3819919589741999E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1">
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>203</v>
       </c>
@@ -22376,7 +28533,7 @@
         <v>1.99729376961666E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1">
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
         <v>205</v>
       </c>
@@ -22417,7 +28574,7 @@
         <v>1.4493319970587899E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1">
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
         <v>207</v>
       </c>
@@ -22458,7 +28615,7 @@
         <v>-9.0847244674258903E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1">
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
         <v>209</v>
       </c>
@@ -22499,7 +28656,7 @@
         <v>5.4393434232346299E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1">
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
         <v>211</v>
       </c>
@@ -22540,7 +28697,7 @@
         <v>1.7094822415937499E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1">
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
         <v>213</v>
       </c>
@@ -22581,7 +28738,7 @@
         <v>2.5374210835006801E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1">
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
         <v>215</v>
       </c>
@@ -22622,7 +28779,7 @@
         <v>-4.8479594062212902E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1">
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
         <v>217</v>
       </c>
@@ -22663,7 +28820,7 @@
         <v>-1.7757748881309598E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1">
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
         <v>219</v>
       </c>
@@ -22704,7 +28861,7 @@
         <v>-7.2603863734990198E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1">
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
         <v>221</v>
       </c>
@@ -22745,7 +28902,7 @@
         <v>-3.9138672707091898E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1">
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
         <v>223</v>
       </c>
@@ -22786,7 +28943,7 @@
         <v>5.9663305729831199E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1">
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
         <v>225</v>
       </c>
@@ -22827,7 +28984,7 @@
         <v>-7.5257336185637694E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1">
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
         <v>227</v>
       </c>
@@ -22868,7 +29025,7 @@
         <v>0.123525743868001</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1">
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
         <v>229</v>
       </c>
@@ -22909,7 +29066,7 @@
         <v>0.11696577021954099</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1">
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
         <v>231</v>
       </c>
@@ -22950,7 +29107,7 @@
         <v>7.3203960674323207E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1">
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
         <v>233</v>
       </c>
@@ -22991,7 +29148,7 @@
         <v>7.85935830208839E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1">
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
         <v>235</v>
       </c>
@@ -23032,7 +29189,7 @@
         <v>1.5733353809266298E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1">
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
         <v>237</v>
       </c>
@@ -23073,7 +29230,7 @@
         <v>-0.26377369223025898</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1">
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -23114,7 +29271,7 @@
         <v>-0.23685691012228899</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1">
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
         <v>241</v>
       </c>
@@ -23155,7 +29312,7 @@
         <v>-0.153635515434836</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1">
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
         <v>243</v>
       </c>
@@ -23196,7 +29353,7 @@
         <v>-0.30636276975888699</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1">
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
         <v>245</v>
       </c>
@@ -23237,7 +29394,7 @@
         <v>-0.17231776748303701</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1">
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
         <v>247</v>
       </c>
@@ -23278,7 +29435,7 @@
         <v>-0.24704716113261599</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1">
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
         <v>249</v>
       </c>
@@ -23319,7 +29476,7 @@
         <v>-0.25516471805929603</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1">
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
         <v>251</v>
       </c>
@@ -23360,7 +29517,7 @@
         <v>-0.20769182563615299</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1">
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
         <v>253</v>
       </c>
@@ -23401,7 +29558,7 @@
         <v>-0.266663328826242</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1">
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
         <v>255</v>
       </c>
@@ -23442,7 +29599,7 @@
         <v>-0.27470830219147002</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1">
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
         <v>257</v>
       </c>
@@ -23483,7 +29640,7 @@
         <v>-0.26724853532394</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1">
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
         <v>259</v>
       </c>
@@ -23524,7 +29681,7 @@
         <v>-0.16946816191018599</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1">
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
         <v>261</v>
       </c>
@@ -23565,7 +29722,7 @@
         <v>-3.1350909888890499E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1">
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
         <v>263</v>
       </c>
@@ -23606,7 +29763,7 @@
         <v>-2.45370298373917E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1">
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
         <v>265</v>
       </c>
@@ -23647,7 +29804,7 @@
         <v>5.2665650486308301E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1">
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
         <v>267</v>
       </c>
@@ -23688,7 +29845,7 @@
         <v>-0.88826557378721005</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1">
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
         <v>269</v>
       </c>
@@ -23729,7 +29886,7 @@
         <v>-0.52008530902297301</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1">
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
         <v>271</v>
       </c>
@@ -23770,7 +29927,7 @@
         <v>0.216313956200753</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1">
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
         <v>273</v>
       </c>
@@ -23811,7 +29968,7 @@
         <v>-0.23576059196295501</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1">
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
         <v>275</v>
       </c>
@@ -23852,7 +30009,7 @@
         <v>-0.18167255428440601</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1">
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
         <v>277</v>
       </c>
@@ -23893,7 +30050,7 @@
         <v>-0.148440917161619</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1">
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
         <v>279</v>
       </c>
@@ -23934,7 +30091,7 @@
         <v>0.217866651666415</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1">
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
         <v>281</v>
       </c>
@@ -23975,7 +30132,7 @@
         <v>0.147787341689994</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1">
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
         <v>283</v>
       </c>
@@ -24016,7 +30173,7 @@
         <v>-9.1014761872607097E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1">
+    <row r="139" spans="1:13">
       <c r="A139" t="s">
         <v>285</v>
       </c>
@@ -24057,7 +30214,7 @@
         <v>-0.60515022914170902</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1">
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
         <v>287</v>
       </c>
@@ -24098,7 +30255,7 @@
         <v>-0.18424297461887101</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1">
+    <row r="141" spans="1:13">
       <c r="A141" t="s">
         <v>289</v>
       </c>
@@ -24139,7 +30296,7 @@
         <v>0.48250175457953398</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1">
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
         <v>291</v>
       </c>
@@ -24180,7 +30337,7 @@
         <v>0.41515628098125101</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1">
+    <row r="143" spans="1:13">
       <c r="A143" t="s">
         <v>293</v>
       </c>
@@ -24221,7 +30378,7 @@
         <v>0.49980559394576801</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1">
+    <row r="144" spans="1:13">
       <c r="A144" t="s">
         <v>295</v>
       </c>
@@ -24262,7 +30419,7 @@
         <v>-0.18454245273081399</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1">
+    <row r="145" spans="1:13">
       <c r="A145" t="s">
         <v>297</v>
       </c>
@@ -24303,7 +30460,7 @@
         <v>-0.54575518131674206</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1">
+    <row r="146" spans="1:13">
       <c r="A146" t="s">
         <v>299</v>
       </c>
@@ -24344,7 +30501,7 @@
         <v>0.14429695299554199</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1">
+    <row r="147" spans="1:13">
       <c r="A147" t="s">
         <v>301</v>
       </c>
@@ -24385,7 +30542,7 @@
         <v>3.4901483870061999E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1">
+    <row r="148" spans="1:13">
       <c r="A148" t="s">
         <v>303</v>
       </c>
@@ -24426,7 +30583,7 @@
         <v>0.38149240521558597</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1">
+    <row r="149" spans="1:13">
       <c r="A149" t="s">
         <v>305</v>
       </c>
@@ -24467,7 +30624,7 @@
         <v>-0.42261138853340402</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" hidden="1">
       <c r="A150" t="s">
         <v>307</v>
       </c>
@@ -24508,7 +30665,7 @@
         <v>-0.45782080954343202</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" hidden="1">
       <c r="A151" t="s">
         <v>309</v>
       </c>
@@ -24549,7 +30706,7 @@
         <v>0.92771332578566101</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" hidden="1">
       <c r="A152" t="s">
         <v>311</v>
       </c>
@@ -24590,7 +30747,7 @@
         <v>0.66346581453838305</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" hidden="1">
       <c r="A153" t="s">
         <v>313</v>
       </c>
@@ -24631,7 +30788,7 @@
         <v>0.44083380388204402</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" hidden="1">
       <c r="A154" t="s">
         <v>315</v>
       </c>
@@ -24672,7 +30829,7 @@
         <v>-8.4695793432874797E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" hidden="1">
       <c r="A155" t="s">
         <v>317</v>
       </c>
@@ -24713,7 +30870,7 @@
         <v>0.40453491276769998</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" hidden="1">
       <c r="A156" t="s">
         <v>319</v>
       </c>
@@ -24754,7 +30911,7 @@
         <v>0.68577371612765403</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" hidden="1">
       <c r="A157" t="s">
         <v>321</v>
       </c>
@@ -24795,7 +30952,7 @@
         <v>-0.26862766926857901</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" hidden="1">
       <c r="A158" t="s">
         <v>323</v>
       </c>
@@ -24836,7 +30993,7 @@
         <v>8.1914254591730407E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" hidden="1">
       <c r="A159" t="s">
         <v>325</v>
       </c>
@@ -24877,7 +31034,7 @@
         <v>-0.51141174730795902</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" hidden="1">
       <c r="A160" t="s">
         <v>327</v>
       </c>
@@ -24918,7 +31075,7 @@
         <v>-1.1540710455311001</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" hidden="1">
       <c r="A161" t="s">
         <v>329</v>
       </c>
@@ -24959,7 +31116,7 @@
         <v>1.61032717451312</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" hidden="1">
       <c r="A162" t="s">
         <v>331</v>
       </c>
@@ -25000,7 +31157,7 @@
         <v>0.26341189375495799</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" hidden="1">
       <c r="A163" t="s">
         <v>333</v>
       </c>
@@ -25041,7 +31198,7 @@
         <v>-0.101998774476678</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" hidden="1">
       <c r="A164" t="s">
         <v>335</v>
       </c>
@@ -25082,7 +31239,7 @@
         <v>0.39133469451909902</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" hidden="1">
       <c r="A165" t="s">
         <v>337</v>
       </c>
@@ -25123,7 +31280,7 @@
         <v>0.101018954851091</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" hidden="1">
       <c r="A166" t="s">
         <v>339</v>
       </c>
@@ -25164,7 +31321,7 @@
         <v>-0.36117199692806801</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" hidden="1">
       <c r="A167" t="s">
         <v>341</v>
       </c>
@@ -25205,7 +31362,7 @@
         <v>0.58184372249445504</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" hidden="1">
       <c r="A168" t="s">
         <v>343</v>
       </c>
@@ -25246,7 +31403,7 @@
         <v>-0.161073237989171</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" hidden="1">
       <c r="A169" t="s">
         <v>345</v>
       </c>
@@ -25287,7 +31444,7 @@
         <v>-9.0142441662600506E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" hidden="1">
       <c r="A170" t="s">
         <v>347</v>
       </c>
@@ -25328,7 +31485,7 @@
         <v>1.11295997494231</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" hidden="1">
       <c r="A171" t="s">
         <v>349</v>
       </c>
@@ -25369,7 +31526,7 @@
         <v>-1.2144328520965799</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" hidden="1">
       <c r="A172" t="s">
         <v>351</v>
       </c>
@@ -25410,7 +31567,7 @@
         <v>-4.55676076759505E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" hidden="1">
       <c r="A173" t="s">
         <v>353</v>
       </c>
@@ -25451,7 +31608,7 @@
         <v>1.22671002352541</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" hidden="1">
       <c r="A174" t="s">
         <v>355</v>
       </c>
@@ -25492,7 +31649,7 @@
         <v>0.54646939647762705</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" hidden="1">
       <c r="A175" t="s">
         <v>357</v>
       </c>
@@ -25533,7 +31690,7 @@
         <v>0.252453833252896</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" hidden="1">
       <c r="A176" t="s">
         <v>359</v>
       </c>
@@ -25574,7 +31731,7 @@
         <v>-0.13499500557107699</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" hidden="1">
       <c r="A177" t="s">
         <v>361</v>
       </c>
@@ -25615,7 +31772,7 @@
         <v>6.7693521430241294E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" hidden="1">
       <c r="A178" t="s">
         <v>363</v>
       </c>
@@ -25656,7 +31813,7 @@
         <v>0.66953244129731004</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" hidden="1">
       <c r="A179" t="s">
         <v>365</v>
       </c>
@@ -25697,7 +31854,7 @@
         <v>-7.2303190146819907E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" hidden="1">
       <c r="A180" t="s">
         <v>367</v>
       </c>
@@ -25738,7 +31895,7 @@
         <v>-0.16318740736399201</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" hidden="1">
       <c r="A181" t="s">
         <v>369</v>
       </c>
@@ -25779,7 +31936,7 @@
         <v>-8.2057388647522895E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" hidden="1">
       <c r="A182" t="s">
         <v>371</v>
       </c>
@@ -25820,7 +31977,7 @@
         <v>0.92699976366881398</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" hidden="1">
       <c r="A183" t="s">
         <v>373</v>
       </c>
@@ -25861,7 +32018,7 @@
         <v>1.2474720408919</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" hidden="1">
       <c r="A184" t="s">
         <v>375</v>
       </c>
@@ -25902,7 +32059,7 @@
         <v>-2.0278858175838799E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" hidden="1">
       <c r="A185" t="s">
         <v>377</v>
       </c>
@@ -25943,7 +32100,7 @@
         <v>0.52358891466378799</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" hidden="1">
       <c r="A186" t="s">
         <v>379</v>
       </c>
@@ -25984,7 +32141,7 @@
         <v>-0.38030345060661502</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" hidden="1">
       <c r="A187" t="s">
         <v>381</v>
       </c>
@@ -26025,7 +32182,7 @@
         <v>1.28219674122099</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" hidden="1">
       <c r="A188" t="s">
         <v>383</v>
       </c>
@@ -26066,7 +32223,7 @@
         <v>-1.7896624434227099E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" hidden="1">
       <c r="A189" t="s">
         <v>385</v>
       </c>
@@ -26107,7 +32264,7 @@
         <v>2.2234601925907298E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" hidden="1">
       <c r="A190" t="s">
         <v>387</v>
       </c>
@@ -26148,7 +32305,7 @@
         <v>0.17722099061701399</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" hidden="1">
       <c r="A191" t="s">
         <v>389</v>
       </c>
@@ -26189,7 +32346,7 @@
         <v>0.14712422772559</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" hidden="1">
       <c r="A192" t="s">
         <v>391</v>
       </c>
@@ -26230,7 +32387,7 @@
         <v>4.9860049328187897E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" hidden="1">
       <c r="A193" t="s">
         <v>393</v>
       </c>
@@ -26271,7 +32428,7 @@
         <v>-6.5218355897029304E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" hidden="1">
       <c r="A194" t="s">
         <v>395</v>
       </c>
@@ -26312,7 +32469,7 @@
         <v>0.38413443165546901</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" hidden="1">
       <c r="A195" t="s">
         <v>397</v>
       </c>
@@ -26353,7 +32510,7 @@
         <v>-0.62365365531789496</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" hidden="1">
       <c r="A196" t="s">
         <v>399</v>
       </c>
@@ -26394,7 +32551,7 @@
         <v>0.22508724640054401</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" hidden="1">
       <c r="A197" t="s">
         <v>401</v>
       </c>
@@ -26435,7 +32592,7 @@
         <v>-0.19764131428432299</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" hidden="1">
       <c r="A198" t="s">
         <v>403</v>
       </c>
@@ -26476,7 +32633,7 @@
         <v>-1.36912976754498E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" hidden="1">
       <c r="A199" t="s">
         <v>405</v>
       </c>
@@ -26517,7 +32674,7 @@
         <v>-0.21159053984454701</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" hidden="1">
       <c r="A200" t="s">
         <v>407</v>
       </c>
@@ -26558,7 +32715,7 @@
         <v>0.59534088110053895</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" hidden="1">
       <c r="A201" t="s">
         <v>409</v>
       </c>
@@ -26599,7 +32756,7 @@
         <v>0.19319723725485499</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" hidden="1">
       <c r="A202" t="s">
         <v>411</v>
       </c>
@@ -26640,7 +32797,7 @@
         <v>-1.2421106028339499</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" hidden="1">
       <c r="A203" t="s">
         <v>413</v>
       </c>
@@ -26681,7 +32838,7 @@
         <v>-0.59834953317518802</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" hidden="1">
       <c r="A204" t="s">
         <v>415</v>
       </c>
@@ -26722,7 +32879,7 @@
         <v>-0.99807845049626798</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" hidden="1">
       <c r="A205" t="s">
         <v>417</v>
       </c>
@@ -26763,7 +32920,7 @@
         <v>-0.335282144779113</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" hidden="1">
       <c r="A206" t="s">
         <v>419</v>
       </c>
@@ -26804,7 +32961,7 @@
         <v>0.30160529614422399</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" hidden="1">
       <c r="A207" t="s">
         <v>421</v>
       </c>
@@ -26845,7 +33002,7 @@
         <v>-0.46894200401736202</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" hidden="1">
       <c r="A208" t="s">
         <v>423</v>
       </c>
@@ -26886,7 +33043,7 @@
         <v>0.25014527491549199</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" hidden="1">
       <c r="A209" t="s">
         <v>425</v>
       </c>
@@ -26927,7 +33084,7 @@
         <v>-1.21030045828342</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" hidden="1">
       <c r="A210" t="s">
         <v>427</v>
       </c>
@@ -26968,7 +33125,7 @@
         <v>-0.61732388151033202</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" hidden="1">
       <c r="A211" t="s">
         <v>429</v>
       </c>
@@ -27009,7 +33166,7 @@
         <v>-0.73316512693531799</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" hidden="1">
       <c r="A212" t="s">
         <v>431</v>
       </c>
@@ -27050,7 +33207,7 @@
         <v>-0.85310612025974997</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" hidden="1">
       <c r="A213" t="s">
         <v>433</v>
       </c>
@@ -27091,7 +33248,7 @@
         <v>0.59099387859678698</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" hidden="1">
       <c r="A214" t="s">
         <v>435</v>
       </c>
@@ -27132,7 +33289,7 @@
         <v>0.19589771839953901</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" hidden="1">
       <c r="A215" t="s">
         <v>437</v>
       </c>
@@ -27173,7 +33330,7 @@
         <v>-0.21827577519848601</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" hidden="1">
       <c r="A216" t="s">
         <v>439</v>
       </c>
@@ -27214,7 +33371,7 @@
         <v>0.23573513696828999</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" hidden="1">
       <c r="A217" t="s">
         <v>441</v>
       </c>
@@ -27255,7 +33412,7 @@
         <v>-0.38892180590071301</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" hidden="1">
       <c r="A218" t="s">
         <v>443</v>
       </c>
@@ -27296,7 +33453,7 @@
         <v>0.526454963461365</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" hidden="1">
       <c r="A219" t="s">
         <v>445</v>
       </c>
@@ -27337,7 +33494,7 @@
         <v>-0.16551249678027699</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" hidden="1">
       <c r="A220" t="s">
         <v>447</v>
       </c>
@@ -27378,7 +33535,7 @@
         <v>0.56755186438134697</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" hidden="1">
       <c r="A221" t="s">
         <v>449</v>
       </c>
@@ -27419,7 +33576,7 @@
         <v>-0.52906843142812499</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" hidden="1">
       <c r="A222" t="s">
         <v>451</v>
       </c>
@@ -27460,7 +33617,7 @@
         <v>-0.75419073408649395</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" hidden="1">
       <c r="A223" t="s">
         <v>453</v>
       </c>
@@ -27501,7 +33658,7 @@
         <v>-0.23554880873688799</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" hidden="1">
       <c r="A224" t="s">
         <v>455</v>
       </c>
@@ -27542,7 +33699,7 @@
         <v>-0.87850857627202705</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" hidden="1">
       <c r="A225" t="s">
         <v>457</v>
       </c>
@@ -27583,7 +33740,7 @@
         <v>0.24795903845869999</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" hidden="1">
       <c r="A226" t="s">
         <v>459</v>
       </c>
@@ -27624,7 +33781,7 @@
         <v>0.441610220233073</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" hidden="1">
       <c r="A227" t="s">
         <v>461</v>
       </c>
@@ -27665,7 +33822,7 @@
         <v>-0.39192571733145398</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" hidden="1">
       <c r="A228" t="s">
         <v>463</v>
       </c>
@@ -27706,7 +33863,7 @@
         <v>0.57669851606403899</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" hidden="1">
       <c r="A229" t="s">
         <v>465</v>
       </c>
@@ -27747,7 +33904,7 @@
         <v>0.18005938340101901</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" hidden="1">
       <c r="A230" t="s">
         <v>467</v>
       </c>
@@ -27788,7 +33945,7 @@
         <v>-1.0800193173316499</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" hidden="1">
       <c r="A231" t="s">
         <v>469</v>
       </c>
@@ -27829,7 +33986,7 @@
         <v>-0.47600515319935799</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" hidden="1">
       <c r="A232" t="s">
         <v>471</v>
       </c>
@@ -27870,7 +34027,7 @@
         <v>-0.38804376380905198</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" hidden="1">
       <c r="A233" t="s">
         <v>473</v>
       </c>
@@ -27911,7 +34068,7 @@
         <v>0.19325572995757301</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" hidden="1">
       <c r="A234" t="s">
         <v>475</v>
       </c>
@@ -27952,7 +34109,7 @@
         <v>-0.97925053131913498</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" hidden="1">
       <c r="A235" t="s">
         <v>477</v>
       </c>
@@ -27993,7 +34150,7 @@
         <v>-0.85808549849031701</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" hidden="1">
       <c r="A236" t="s">
         <v>479</v>
       </c>
@@ -28034,7 +34191,7 @@
         <v>-0.68190613904055797</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" hidden="1">
       <c r="A237" t="s">
         <v>481</v>
       </c>
@@ -28075,7 +34232,7 @@
         <v>0.60002233973414898</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" hidden="1">
       <c r="A238" t="s">
         <v>483</v>
       </c>
@@ -28116,7 +34273,7 @@
         <v>0.18146982952784699</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" hidden="1">
       <c r="A239" t="s">
         <v>485</v>
       </c>
@@ -28157,7 +34314,7 @@
         <v>-0.63034594560736401</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" hidden="1">
       <c r="A240" t="s">
         <v>487</v>
       </c>
@@ -28198,7 +34355,7 @@
         <v>-0.28700613742249997</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" hidden="1">
       <c r="A241" t="s">
         <v>489</v>
       </c>
@@ -28239,7 +34396,7 @@
         <v>0.98866650512365195</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" hidden="1">
       <c r="A242" t="s">
         <v>491</v>
       </c>
@@ -28280,7 +34437,7 @@
         <v>0.62260329235950895</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" hidden="1">
       <c r="A243" t="s">
         <v>493</v>
       </c>
@@ -28321,7 +34478,7 @@
         <v>0.16716164764945299</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" hidden="1">
       <c r="A244" t="s">
         <v>495</v>
       </c>
@@ -28362,7 +34519,7 @@
         <v>-0.2615314524531</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" hidden="1">
       <c r="A245" t="s">
         <v>497</v>
       </c>
@@ -28403,7 +34560,7 @@
         <v>0.734196831769931</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" hidden="1">
       <c r="A246" t="s">
         <v>499</v>
       </c>
@@ -28444,7 +34601,7 @@
         <v>0.83482201033221803</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" hidden="1">
       <c r="A247" t="s">
         <v>501</v>
       </c>
@@ -28485,7 +34642,7 @@
         <v>-0.50718610581119805</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" hidden="1">
       <c r="A248" t="s">
         <v>503</v>
       </c>
@@ -28526,7 +34683,7 @@
         <v>1.1209827947989801</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" hidden="1">
       <c r="A249" t="s">
         <v>505</v>
       </c>
@@ -28567,7 +34724,7 @@
         <v>-5.1938795519129902E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" hidden="1">
       <c r="A250" t="s">
         <v>507</v>
       </c>
@@ -28608,7 +34765,7 @@
         <v>0.23068117787695799</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" hidden="1">
       <c r="A251" t="s">
         <v>509</v>
       </c>
@@ -28649,7 +34806,7 @@
         <v>0.75731583683795101</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" hidden="1">
       <c r="A252" t="s">
         <v>511</v>
       </c>
@@ -28690,7 +34847,7 @@
         <v>0.100786514458828</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" hidden="1">
       <c r="A253" t="s">
         <v>513</v>
       </c>
@@ -28731,7 +34888,7 @@
         <v>-0.18495988287969101</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" hidden="1">
       <c r="A254" t="s">
         <v>515</v>
       </c>
@@ -28772,7 +34929,7 @@
         <v>0.13667850362856801</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" hidden="1">
       <c r="A255" t="s">
         <v>517</v>
       </c>
@@ -28813,7 +34970,7 @@
         <v>0.349927770138659</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" hidden="1">
       <c r="A256" t="s">
         <v>519</v>
       </c>
@@ -28854,7 +35011,7 @@
         <v>0.63652477097350402</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" hidden="1">
       <c r="A257" t="s">
         <v>521</v>
       </c>
@@ -28895,7 +35052,7 @@
         <v>-0.60847700081415401</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" hidden="1">
       <c r="A258" t="s">
         <v>523</v>
       </c>
@@ -28936,7 +35093,7 @@
         <v>-1.57300754382153E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" hidden="1">
       <c r="A259" t="s">
         <v>525</v>
       </c>
@@ -28977,7 +35134,7 @@
         <v>0.20144157054341399</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" hidden="1">
       <c r="A260" t="s">
         <v>527</v>
       </c>
@@ -29018,7 +35175,7 @@
         <v>1.9144915768338499E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" hidden="1">
       <c r="A261" t="s">
         <v>529</v>
       </c>
@@ -29059,7 +35216,7 @@
         <v>4.2948728216659897E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" hidden="1">
       <c r="A262" t="s">
         <v>531</v>
       </c>
@@ -29100,7 +35257,7 @@
         <v>-6.0460048197758104E-3</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" hidden="1">
       <c r="A263" t="s">
         <v>533</v>
       </c>
@@ -29141,7 +35298,7 @@
         <v>0.22672258990125399</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" hidden="1">
       <c r="A264" t="s">
         <v>535</v>
       </c>
@@ -29182,7 +35339,7 @@
         <v>-0.22778621428708801</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" hidden="1">
       <c r="A265" t="s">
         <v>537</v>
       </c>
@@ -29223,7 +35380,7 @@
         <v>-0.30165545302513003</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" hidden="1">
       <c r="A266" t="s">
         <v>539</v>
       </c>
@@ -29264,7 +35421,7 @@
         <v>0.86289201086380696</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" hidden="1">
       <c r="A267" t="s">
         <v>541</v>
       </c>
@@ -29305,7 +35462,7 @@
         <v>-0.21376429164851801</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" hidden="1">
       <c r="A268" t="s">
         <v>543</v>
       </c>
@@ -29346,7 +35503,7 @@
         <v>-1.4705282620699501E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" hidden="1">
       <c r="A269" t="s">
         <v>545</v>
       </c>
@@ -29387,7 +35544,7 @@
         <v>0.18615371179236301</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" hidden="1">
       <c r="A270" t="s">
         <v>547</v>
       </c>
@@ -29428,7 +35585,7 @@
         <v>-1.4235012523016899</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" hidden="1">
       <c r="A271" t="s">
         <v>549</v>
       </c>
@@ -29469,7 +35626,7 @@
         <v>-0.70894210900693</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" hidden="1">
       <c r="A272" t="s">
         <v>551</v>
       </c>
@@ -29510,7 +35667,7 @@
         <v>0.66935522308683604</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" hidden="1">
       <c r="A273" t="s">
         <v>553</v>
       </c>
@@ -29551,7 +35708,7 @@
         <v>0.34501486134411402</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" hidden="1">
       <c r="A274" t="s">
         <v>555</v>
       </c>
@@ -29592,7 +35749,7 @@
         <v>-0.29936053340497898</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" hidden="1">
       <c r="A275" t="s">
         <v>557</v>
       </c>
@@ -29633,7 +35790,7 @@
         <v>0.96414590557500401</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" hidden="1">
       <c r="A276" t="s">
         <v>559</v>
       </c>
@@ -29674,7 +35831,7 @@
         <v>1.3365089712882701</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" hidden="1">
       <c r="A277" t="s">
         <v>561</v>
       </c>
@@ -29715,7 +35872,7 @@
         <v>0.68219047462196103</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" hidden="1">
       <c r="A278" t="s">
         <v>563</v>
       </c>
@@ -29756,7 +35913,7 @@
         <v>-1.47311044266046</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" hidden="1">
       <c r="A279" t="s">
         <v>565</v>
       </c>
@@ -29797,7 +35954,7 @@
         <v>-0.16187630647363199</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" hidden="1">
       <c r="A280" t="s">
         <v>567</v>
       </c>
@@ -29838,7 +35995,7 @@
         <v>4.1365297177287499E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" hidden="1">
       <c r="A281" t="s">
         <v>569</v>
       </c>
@@ -29879,7 +36036,7 @@
         <v>-0.23347144606506201</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" hidden="1">
       <c r="A282" t="s">
         <v>571</v>
       </c>
@@ -29920,7 +36077,7 @@
         <v>0.18070223255623</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" hidden="1">
       <c r="A283" t="s">
         <v>573</v>
       </c>
@@ -29961,7 +36118,7 @@
         <v>-9.9965624309643702E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" hidden="1">
       <c r="A284" t="s">
         <v>575</v>
       </c>
@@ -30002,7 +36159,7 @@
         <v>-6.3798896805080899E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" hidden="1">
       <c r="A285" t="s">
         <v>577</v>
       </c>
@@ -30043,7 +36200,7 @@
         <v>0.26760443202353101</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" hidden="1">
       <c r="A286" t="s">
         <v>579</v>
       </c>
@@ -30084,7 +36241,7 @@
         <v>-0.113137558762038</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" hidden="1">
       <c r="A287" t="s">
         <v>581</v>
       </c>
@@ -30125,7 +36282,7 @@
         <v>5.8217199004500099E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" hidden="1">
       <c r="A288" t="s">
         <v>583</v>
       </c>
@@ -30166,7 +36323,7 @@
         <v>0.319101846245257</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" hidden="1">
       <c r="A289" t="s">
         <v>585</v>
       </c>
@@ -30207,7 +36364,7 @@
         <v>-0.58347882900489401</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" hidden="1">
       <c r="A290" t="s">
         <v>587</v>
       </c>
@@ -30248,7 +36405,7 @@
         <v>-0.62909766308092396</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" hidden="1">
       <c r="A291" t="s">
         <v>589</v>
       </c>
@@ -30289,7 +36446,7 @@
         <v>0.37782582986632801</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" hidden="1">
       <c r="A292" t="s">
         <v>591</v>
       </c>
@@ -30330,7 +36487,7 @@
         <v>-0.21884206906236001</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" hidden="1">
       <c r="A293" t="s">
         <v>593</v>
       </c>
@@ -30371,7 +36528,7 @@
         <v>0.98600546990404003</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" hidden="1">
       <c r="A294" t="s">
         <v>595</v>
       </c>
@@ -30412,7 +36569,7 @@
         <v>0.72024108748784699</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" hidden="1">
       <c r="A295" t="s">
         <v>597</v>
       </c>
@@ -30453,7 +36610,7 @@
         <v>0.30006484150611901</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" hidden="1">
       <c r="A296" t="s">
         <v>599</v>
       </c>
@@ -30494,7 +36651,7 @@
         <v>2.8863730534663699E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" hidden="1">
       <c r="A297" t="s">
         <v>601</v>
       </c>
@@ -30535,7 +36692,7 @@
         <v>0.29319031928780198</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" hidden="1">
       <c r="A298" t="s">
         <v>603</v>
       </c>
@@ -30576,7 +36733,7 @@
         <v>-5.3081134894434098E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" hidden="1">
       <c r="A299" t="s">
         <v>605</v>
       </c>
@@ -30617,7 +36774,7 @@
         <v>-0.32139545160808303</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" hidden="1">
       <c r="A300" t="s">
         <v>607</v>
       </c>
@@ -30658,7 +36815,7 @@
         <v>-0.70550403828832697</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" hidden="1">
       <c r="A301" t="s">
         <v>609</v>
       </c>
@@ -30699,7 +36856,7 @@
         <v>0.48660973397641799</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" hidden="1">
       <c r="A302" t="s">
         <v>611</v>
       </c>
@@ -30740,7 +36897,7 @@
         <v>0.28859087694591701</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" hidden="1">
       <c r="A303" t="s">
         <v>613</v>
       </c>
@@ -30781,7 +36938,7 @@
         <v>0.237917617465986</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" hidden="1">
       <c r="A304" t="s">
         <v>615</v>
       </c>
@@ -30822,7 +36979,7 @@
         <v>0.82245772602103295</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" hidden="1">
       <c r="A305" t="s">
         <v>617</v>
       </c>
@@ -30863,7 +37020,7 @@
         <v>-2.9285531636645801</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" hidden="1">
       <c r="A306" t="s">
         <v>619</v>
       </c>
@@ -30904,7 +37061,7 @@
         <v>6.5891044431974702E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" hidden="1">
       <c r="A307" t="s">
         <v>621</v>
       </c>
@@ -30945,7 +37102,7 @@
         <v>0.90214060080761105</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" hidden="1">
       <c r="A308" t="s">
         <v>623</v>
       </c>
@@ -30986,7 +37143,7 @@
         <v>0.12242689433637299</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" hidden="1">
       <c r="A309" t="s">
         <v>625</v>
       </c>
@@ -31027,7 +37184,7 @@
         <v>-4.9043568372142E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" hidden="1">
       <c r="A310" t="s">
         <v>627</v>
       </c>
@@ -31068,7 +37225,7 @@
         <v>-0.286968272077604</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" hidden="1">
       <c r="A311" t="s">
         <v>629</v>
       </c>
@@ -31109,7 +37266,7 @@
         <v>-0.75506892873586096</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" hidden="1">
       <c r="A312" t="s">
         <v>631</v>
       </c>
@@ -31150,7 +37307,7 @@
         <v>0.74787207957798396</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" hidden="1">
       <c r="A313" t="s">
         <v>633</v>
       </c>
@@ -31191,7 +37348,7 @@
         <v>0.126801770143596</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" hidden="1">
       <c r="A314" t="s">
         <v>635</v>
       </c>
@@ -31232,7 +37389,7 @@
         <v>0.131025268487377</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" hidden="1">
       <c r="A315" t="s">
         <v>637</v>
       </c>
@@ -31273,7 +37430,7 @@
         <v>-0.80330651093081296</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" hidden="1">
       <c r="A316" t="s">
         <v>639</v>
       </c>
@@ -31314,7 +37471,7 @@
         <v>-0.77453404285986804</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" hidden="1">
       <c r="A317" t="s">
         <v>641</v>
       </c>
@@ -31355,7 +37512,7 @@
         <v>0.183002099187319</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" hidden="1">
       <c r="A318" t="s">
         <v>643</v>
       </c>
@@ -31396,7 +37553,7 @@
         <v>0.25587053064698301</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" hidden="1">
       <c r="A319" t="s">
         <v>645</v>
       </c>
@@ -31437,7 +37594,7 @@
         <v>-6.2290196548414799E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" hidden="1">
       <c r="A320" t="s">
         <v>647</v>
       </c>
@@ -31478,7 +37635,7 @@
         <v>-0.61395308342561095</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" hidden="1">
       <c r="A321" t="s">
         <v>649</v>
       </c>
@@ -31519,7 +37676,7 @@
         <v>0.28051720828606502</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" hidden="1">
       <c r="A322" t="s">
         <v>651</v>
       </c>
@@ -31560,7 +37717,7 @@
         <v>0.52617949627161897</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" hidden="1">
       <c r="A323" t="s">
         <v>653</v>
       </c>
@@ -31601,7 +37758,7 @@
         <v>0.13599642416394001</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" hidden="1">
       <c r="A324" t="s">
         <v>655</v>
       </c>
@@ -31642,7 +37799,7 @@
         <v>-0.197152725354627</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" hidden="1">
       <c r="A325" t="s">
         <v>657</v>
       </c>
@@ -31683,7 +37840,7 @@
         <v>5.8854966456057603E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" hidden="1">
       <c r="A326" t="s">
         <v>659</v>
       </c>
@@ -31724,7 +37881,7 @@
         <v>-0.852085716713749</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" hidden="1">
       <c r="A327" t="s">
         <v>661</v>
       </c>
@@ -31765,7 +37922,7 @@
         <v>0.79022588601673005</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" hidden="1">
       <c r="A328" t="s">
         <v>663</v>
       </c>
@@ -31806,7 +37963,7 @@
         <v>-0.75794545341109099</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" hidden="1">
       <c r="A329" t="s">
         <v>665</v>
       </c>
@@ -31847,7 +38004,7 @@
         <v>-0.430506369011802</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" hidden="1">
       <c r="A330" t="s">
         <v>667</v>
       </c>
@@ -31888,7 +38045,7 @@
         <v>0.42409711556766699</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" hidden="1">
       <c r="A331" t="s">
         <v>669</v>
       </c>
@@ -31929,7 +38086,7 @@
         <v>0.80187454153029003</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" hidden="1">
       <c r="A332" t="s">
         <v>671</v>
       </c>
@@ -31970,7 +38127,7 @@
         <v>0.96221576034937895</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" hidden="1">
       <c r="A333" t="s">
         <v>673</v>
       </c>
@@ -32011,7 +38168,7 @@
         <v>0.46411355687432898</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" hidden="1">
       <c r="A334" t="s">
         <v>675</v>
       </c>
@@ -32052,7 +38209,7 @@
         <v>-0.48452476853406501</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" hidden="1">
       <c r="A335" t="s">
         <v>677</v>
       </c>
@@ -32093,7 +38250,7 @@
         <v>-5.8995221971482298E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" hidden="1">
       <c r="A336" t="s">
         <v>679</v>
       </c>
@@ -32134,7 +38291,7 @@
         <v>0.86031999832473505</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" hidden="1">
       <c r="A337" t="s">
         <v>681</v>
       </c>
@@ -32175,7 +38332,7 @@
         <v>1.0368052712315601</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" hidden="1">
       <c r="A338" t="s">
         <v>683</v>
       </c>
@@ -32216,7 +38373,7 @@
         <v>0.409808162458139</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" hidden="1">
       <c r="A339" t="s">
         <v>685</v>
       </c>
@@ -32257,7 +38414,7 @@
         <v>-0.71494012311613797</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" hidden="1">
       <c r="A340" t="s">
         <v>687</v>
       </c>
@@ -32298,7 +38455,7 @@
         <v>-0.25372237413549498</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" hidden="1">
       <c r="A341" t="s">
         <v>689</v>
       </c>
@@ -32339,7 +38496,7 @@
         <v>0.94505740535028204</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" hidden="1">
       <c r="A342" t="s">
         <v>691</v>
       </c>
@@ -32380,7 +38537,7 @@
         <v>-0.28275878198565901</v>
       </c>
     </row>
-    <row r="343" spans="1:13">
+    <row r="343" spans="1:13" hidden="1">
       <c r="A343" t="s">
         <v>693</v>
       </c>
@@ -32421,7 +38578,7 @@
         <v>0.148148783367159</v>
       </c>
     </row>
-    <row r="344" spans="1:13">
+    <row r="344" spans="1:13" hidden="1">
       <c r="A344" t="s">
         <v>695</v>
       </c>
@@ -32462,7 +38619,7 @@
         <v>5.4426442534473603E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:13">
+    <row r="345" spans="1:13" hidden="1">
       <c r="A345" t="s">
         <v>697</v>
       </c>
@@ -32503,7 +38660,7 @@
         <v>1.1304112640478201</v>
       </c>
     </row>
-    <row r="346" spans="1:13">
+    <row r="346" spans="1:13" hidden="1">
       <c r="A346" t="s">
         <v>699</v>
       </c>
@@ -32544,7 +38701,7 @@
         <v>5.4220205807101199E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:13">
+    <row r="347" spans="1:13" hidden="1">
       <c r="A347" t="s">
         <v>701</v>
       </c>
@@ -32585,7 +38742,7 @@
         <v>4.3753480668565901E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:13">
+    <row r="348" spans="1:13" hidden="1">
       <c r="A348" t="s">
         <v>703</v>
       </c>
@@ -32626,7 +38783,7 @@
         <v>0.75658735642491104</v>
       </c>
     </row>
-    <row r="349" spans="1:13">
+    <row r="349" spans="1:13" hidden="1">
       <c r="A349" t="s">
         <v>705</v>
       </c>
@@ -32667,7 +38824,7 @@
         <v>-0.108889555856928</v>
       </c>
     </row>
-    <row r="350" spans="1:13">
+    <row r="350" spans="1:13" hidden="1">
       <c r="A350" t="s">
         <v>707</v>
       </c>
@@ -32708,7 +38865,7 @@
         <v>-6.0617916650359503E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:13">
+    <row r="351" spans="1:13" hidden="1">
       <c r="A351" t="s">
         <v>709</v>
       </c>
@@ -32749,7 +38906,7 @@
         <v>0.57390827469116501</v>
       </c>
     </row>
-    <row r="352" spans="1:13">
+    <row r="352" spans="1:13" hidden="1">
       <c r="A352" t="s">
         <v>711</v>
       </c>
@@ -32790,7 +38947,7 @@
         <v>-0.56309007728085703</v>
       </c>
     </row>
-    <row r="353" spans="1:13">
+    <row r="353" spans="1:13" hidden="1">
       <c r="A353" t="s">
         <v>713</v>
       </c>
@@ -32831,7 +38988,7 @@
         <v>-0.84522277706680804</v>
       </c>
     </row>
-    <row r="354" spans="1:13">
+    <row r="354" spans="1:13" hidden="1">
       <c r="A354" t="s">
         <v>715</v>
       </c>
@@ -32872,7 +39029,7 @@
         <v>-0.52280400066969601</v>
       </c>
     </row>
-    <row r="355" spans="1:13">
+    <row r="355" spans="1:13" hidden="1">
       <c r="A355" t="s">
         <v>717</v>
       </c>
@@ -32913,7 +39070,7 @@
         <v>0.614736035849614</v>
       </c>
     </row>
-    <row r="356" spans="1:13">
+    <row r="356" spans="1:13" hidden="1">
       <c r="A356" t="s">
         <v>719</v>
       </c>
@@ -32954,7 +39111,7 @@
         <v>0.62274908248444505</v>
       </c>
     </row>
-    <row r="357" spans="1:13">
+    <row r="357" spans="1:13" hidden="1">
       <c r="A357" t="s">
         <v>721</v>
       </c>
@@ -32995,7 +39152,7 @@
         <v>-0.50399383090402905</v>
       </c>
     </row>
-    <row r="358" spans="1:13">
+    <row r="358" spans="1:13" hidden="1">
       <c r="A358" t="s">
         <v>723</v>
       </c>
@@ -33036,7 +39193,7 @@
         <v>0.76519669561404002</v>
       </c>
     </row>
-    <row r="359" spans="1:13">
+    <row r="359" spans="1:13" hidden="1">
       <c r="A359" t="s">
         <v>725</v>
       </c>
@@ -33077,7 +39234,7 @@
         <v>0.34386075536640798</v>
       </c>
     </row>
-    <row r="360" spans="1:13">
+    <row r="360" spans="1:13" hidden="1">
       <c r="A360" t="s">
         <v>727</v>
       </c>
@@ -33118,7 +39275,7 @@
         <v>-0.90233565391256298</v>
       </c>
     </row>
-    <row r="361" spans="1:13">
+    <row r="361" spans="1:13" hidden="1">
       <c r="A361" t="s">
         <v>729</v>
       </c>
@@ -33159,7 +39316,7 @@
         <v>-0.31613617315978898</v>
       </c>
     </row>
-    <row r="362" spans="1:13">
+    <row r="362" spans="1:13" hidden="1">
       <c r="A362" t="s">
         <v>731</v>
       </c>
@@ -33200,7 +39357,7 @@
         <v>-6.6863881926201504E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:13">
+    <row r="363" spans="1:13" hidden="1">
       <c r="A363" t="s">
         <v>733</v>
       </c>
@@ -33241,7 +39398,7 @@
         <v>-2.76333291512884E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:13">
+    <row r="364" spans="1:13" hidden="1">
       <c r="A364" t="s">
         <v>735</v>
       </c>
@@ -33282,7 +39439,7 @@
         <v>0.48127705225286499</v>
       </c>
     </row>
-    <row r="365" spans="1:13">
+    <row r="365" spans="1:13" hidden="1">
       <c r="A365" t="s">
         <v>737</v>
       </c>
@@ -33323,7 +39480,7 @@
         <v>-0.113383363743938</v>
       </c>
     </row>
-    <row r="366" spans="1:13">
+    <row r="366" spans="1:13" hidden="1">
       <c r="A366" t="s">
         <v>739</v>
       </c>
@@ -33364,7 +39521,7 @@
         <v>-0.34438649744335598</v>
       </c>
     </row>
-    <row r="367" spans="1:13">
+    <row r="367" spans="1:13" hidden="1">
       <c r="A367" t="s">
         <v>741</v>
       </c>
@@ -33405,7 +39562,7 @@
         <v>-0.44507166498171702</v>
       </c>
     </row>
-    <row r="368" spans="1:13">
+    <row r="368" spans="1:13" hidden="1">
       <c r="A368" t="s">
         <v>743</v>
       </c>
@@ -33446,7 +39603,7 @@
         <v>-0.83849847619199003</v>
       </c>
     </row>
-    <row r="369" spans="1:13">
+    <row r="369" spans="1:13" hidden="1">
       <c r="A369" t="s">
         <v>745</v>
       </c>
@@ -33487,7 +39644,7 @@
         <v>0.39996567870923899</v>
       </c>
     </row>
-    <row r="370" spans="1:13">
+    <row r="370" spans="1:13" hidden="1">
       <c r="A370" t="s">
         <v>747</v>
       </c>
@@ -33528,7 +39685,7 @@
         <v>1.8440124082909899</v>
       </c>
     </row>
-    <row r="371" spans="1:13">
+    <row r="371" spans="1:13" hidden="1">
       <c r="A371" t="s">
         <v>749</v>
       </c>
@@ -33569,7 +39726,7 @@
         <v>0.185542947605528</v>
       </c>
     </row>
-    <row r="372" spans="1:13">
+    <row r="372" spans="1:13" hidden="1">
       <c r="A372" t="s">
         <v>751</v>
       </c>
@@ -33610,7 +39767,7 @@
         <v>0.40118679896607601</v>
       </c>
     </row>
-    <row r="373" spans="1:13">
+    <row r="373" spans="1:13" hidden="1">
       <c r="A373" t="s">
         <v>753</v>
       </c>
@@ -33651,7 +39808,7 @@
         <v>-0.44669996906111298</v>
       </c>
     </row>
-    <row r="374" spans="1:13">
+    <row r="374" spans="1:13" hidden="1">
       <c r="A374" t="s">
         <v>755</v>
       </c>
@@ -33692,7 +39849,7 @@
         <v>0.32914744410622698</v>
       </c>
     </row>
-    <row r="375" spans="1:13">
+    <row r="375" spans="1:13" hidden="1">
       <c r="A375" t="s">
         <v>757</v>
       </c>
@@ -33733,7 +39890,7 @@
         <v>0.25016478781512502</v>
       </c>
     </row>
-    <row r="376" spans="1:13">
+    <row r="376" spans="1:13" hidden="1">
       <c r="A376" t="s">
         <v>759</v>
       </c>
@@ -44028,8 +50185,7 @@
   <autoFilter ref="A1:M626">
     <filterColumn colId="2">
       <filters>
-        <filter val="FG"/>
-        <filter val="MG"/>
+        <filter val="fndr"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -44043,7 +50199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M617"/>
   <sheetViews>
@@ -69362,7 +75518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M228"/>
